--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PUBCON_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PUBCON_AVERAGE_10_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>0.3414817814509661</v>
       </c>
-      <c r="BA2">
-        <v>0.3414817814509661</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,16 +845,13 @@
       <c r="AZ3">
         <v>0.4082229956956951</v>
       </c>
-      <c r="BA3">
-        <v>0.4082229956956951</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
       <c r="B4">
-        <v>0.4148772958367175</v>
+        <v>0.3748523885733306</v>
       </c>
       <c r="C4">
         <v>0.2622798531249657</v>
@@ -1012,16 +1003,13 @@
       <c r="AZ4">
         <v>0.2622798531249657</v>
       </c>
-      <c r="BA4">
-        <v>0.2622798531249657</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
       <c r="B5">
-        <v>0.6845813514878358</v>
+        <v>0.3748523885733306</v>
       </c>
       <c r="C5">
         <v>0.4989385597712612</v>
@@ -1173,19 +1161,16 @@
       <c r="AZ5">
         <v>0.4989385597712612</v>
       </c>
-      <c r="BA5">
-        <v>0.4989385597712612</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
       <c r="B6">
-        <v>0.4127009086287075</v>
+        <v>0.3748523885733306</v>
       </c>
       <c r="C6">
-        <v>0.3390406387066065</v>
+        <v>0.377730797510722</v>
       </c>
       <c r="D6">
         <v>0.1216139147831967</v>
@@ -1334,19 +1319,16 @@
       <c r="AZ6">
         <v>0.1216139147831967</v>
       </c>
-      <c r="BA6">
-        <v>0.1216139147831967</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
       <c r="B7">
-        <v>0.4523728666199844</v>
+        <v>0.3748523885733306</v>
       </c>
       <c r="C7">
-        <v>0.6274680232633898</v>
+        <v>0.377730797510722</v>
       </c>
       <c r="D7">
         <v>0.6548011357729422</v>
@@ -1495,22 +1477,19 @@
       <c r="AZ7">
         <v>0.6548011357729422</v>
       </c>
-      <c r="BA7">
-        <v>0.6548011357729422</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
       <c r="B8">
-        <v>0.4523728666199844</v>
+        <v>0.3748523885733306</v>
       </c>
       <c r="C8">
-        <v>0.4244732020363102</v>
+        <v>0.377730797510722</v>
       </c>
       <c r="D8">
-        <v>0.4343285068005116</v>
+        <v>0.3812230400998378</v>
       </c>
       <c r="E8">
         <v>0.9925931342935428</v>
@@ -1656,22 +1635,19 @@
       <c r="AZ8">
         <v>0.9925931342935428</v>
       </c>
-      <c r="BA8">
-        <v>0.9925931342935428</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
       <c r="B9">
-        <v>0.4523728666199844</v>
+        <v>0.3748523885733306</v>
       </c>
       <c r="C9">
-        <v>0.4266472535042993</v>
+        <v>0.377730797510722</v>
       </c>
       <c r="D9">
-        <v>0.4191034836738936</v>
+        <v>0.3812230400998378</v>
       </c>
       <c r="E9">
         <v>0.4197174453273789</v>
@@ -1817,25 +1793,22 @@
       <c r="AZ9">
         <v>0.4197174453273789</v>
       </c>
-      <c r="BA9">
-        <v>0.4197174453273789</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
       <c r="B10">
-        <v>0.4523728666199844</v>
+        <v>0.3748523885733306</v>
       </c>
       <c r="C10">
-        <v>0.4230864195430968</v>
+        <v>0.377730797510722</v>
       </c>
       <c r="D10">
-        <v>0.3934705689389091</v>
+        <v>0.3812230400998378</v>
       </c>
       <c r="E10">
-        <v>0.3967004160924716</v>
+        <v>0.4624561025274936</v>
       </c>
       <c r="F10">
         <v>0.4423121297183457</v>
@@ -1978,25 +1951,22 @@
       <c r="AZ10">
         <v>0.4423121297183457</v>
       </c>
-      <c r="BA10">
-        <v>0.4423121297183457</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
       <c r="B11">
-        <v>0.4523728666199844</v>
+        <v>0.3748523885733306</v>
       </c>
       <c r="C11">
-        <v>0.4168487474551767</v>
+        <v>0.377730797510722</v>
       </c>
       <c r="D11">
-        <v>0.3926934222235935</v>
+        <v>0.3812230400998378</v>
       </c>
       <c r="E11">
-        <v>0.3967808902560108</v>
+        <v>0.4624561025274936</v>
       </c>
       <c r="F11">
         <v>0.3248472793844002</v>
@@ -2139,28 +2109,25 @@
       <c r="AZ11">
         <v>0.3248472793844002</v>
       </c>
-      <c r="BA11">
-        <v>0.3248472793844002</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
       <c r="B12">
-        <v>0.4523728666199844</v>
+        <v>0.3748523885733306</v>
       </c>
       <c r="C12">
-        <v>0.4168487474551767</v>
+        <v>0.377730797510722</v>
       </c>
       <c r="D12">
-        <v>0.3926934222235935</v>
+        <v>0.3812230400998378</v>
       </c>
       <c r="E12">
-        <v>0.3886954132373432</v>
+        <v>0.4624561025274936</v>
       </c>
       <c r="F12">
-        <v>0.2980141330449726</v>
+        <v>0.4466808229322695</v>
       </c>
       <c r="G12">
         <v>0.07907397708568453</v>
@@ -2300,28 +2267,25 @@
       <c r="AZ12">
         <v>0.07907397708568453</v>
       </c>
-      <c r="BA12">
-        <v>0.07907397708568453</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
       <c r="B13">
-        <v>0.4523728666199844</v>
+        <v>0.3748523885733306</v>
       </c>
       <c r="C13">
-        <v>0.4168487474551767</v>
+        <v>0.377730797510722</v>
       </c>
       <c r="D13">
-        <v>0.3926934222235935</v>
+        <v>0.3812230400998378</v>
       </c>
       <c r="E13">
-        <v>0.3774216355052999</v>
+        <v>0.4624561025274936</v>
       </c>
       <c r="F13">
-        <v>0.2790483646325725</v>
+        <v>0.4466808229322695</v>
       </c>
       <c r="G13">
         <v>0.2409202938150372</v>
@@ -2461,31 +2425,25 @@
       <c r="AZ13">
         <v>0.2409202938150372</v>
       </c>
-      <c r="BA13">
-        <v>0.2409202938150372</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="B14">
-        <v>0.4523728666199844</v>
-      </c>
       <c r="C14">
-        <v>0.4168487474551767</v>
+        <v>0.377730797510722</v>
       </c>
       <c r="D14">
-        <v>0.3926934222235935</v>
+        <v>0.3812230400998378</v>
       </c>
       <c r="E14">
-        <v>0.3634637953232129</v>
+        <v>0.4624561025274936</v>
       </c>
       <c r="F14">
-        <v>0.275248799449173</v>
+        <v>0.4466808229322695</v>
       </c>
       <c r="G14">
-        <v>0.2409141906906314</v>
+        <v>0.4037097723076755</v>
       </c>
       <c r="H14">
         <v>0.1901876995395071</v>
@@ -2622,31 +2580,25 @@
       <c r="AZ14">
         <v>0.1901876995395071</v>
       </c>
-      <c r="BA14">
-        <v>0.1901876995395071</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="B15">
-        <v>0.4523728666199844</v>
-      </c>
       <c r="C15">
-        <v>0.4168487474551767</v>
+        <v>0.377730797510722</v>
       </c>
       <c r="D15">
-        <v>0.3926934222235935</v>
+        <v>0.3812230400998378</v>
       </c>
       <c r="E15">
-        <v>0.461072634036266</v>
+        <v>0.4624561025274936</v>
       </c>
       <c r="F15">
-        <v>0.4307134896177786</v>
+        <v>0.4466808229322695</v>
       </c>
       <c r="G15">
-        <v>-0.002425626523120172</v>
+        <v>0.4037097723076755</v>
       </c>
       <c r="H15">
         <v>0.3234244561263893</v>
@@ -2783,34 +2735,25 @@
       <c r="AZ15">
         <v>0.3234244561263893</v>
       </c>
-      <c r="BA15">
-        <v>0.3234244561263893</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="B16">
-        <v>0.4523728666199844</v>
-      </c>
-      <c r="C16">
-        <v>0.4168487474551767</v>
-      </c>
       <c r="D16">
-        <v>0.3926934222235935</v>
+        <v>0.3812230400998378</v>
       </c>
       <c r="E16">
-        <v>0.461072634036266</v>
+        <v>0.4624561025274936</v>
       </c>
       <c r="F16">
-        <v>0.4307134896177786</v>
+        <v>0.4466808229322695</v>
       </c>
       <c r="G16">
-        <v>0.1514028724571688</v>
+        <v>0.4037097723076755</v>
       </c>
       <c r="H16">
-        <v>0.5026203257537816</v>
+        <v>0.3789491465846425</v>
       </c>
       <c r="I16">
         <v>0.5460928092329453</v>
@@ -2944,31 +2887,25 @@
       <c r="AZ16">
         <v>0.5460928092329453</v>
       </c>
-      <c r="BA16">
-        <v>0.5460928092329453</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>0.4168487474551767</v>
-      </c>
       <c r="D17">
-        <v>0.3926934222235935</v>
+        <v>0.3812230400998378</v>
       </c>
       <c r="E17">
-        <v>0.461072634036266</v>
+        <v>0.4624561025274936</v>
       </c>
       <c r="F17">
-        <v>0.4307134896177786</v>
+        <v>0.4466808229322695</v>
       </c>
       <c r="G17">
-        <v>0.1462774785881038</v>
+        <v>0.4037097723076755</v>
       </c>
       <c r="H17">
-        <v>0.3565026020460067</v>
+        <v>0.3789491465846425</v>
       </c>
       <c r="I17">
         <v>0.24993599858945</v>
@@ -3102,34 +3039,25 @@
       <c r="AZ17">
         <v>0.24993599858945</v>
       </c>
-      <c r="BA17">
-        <v>0.24993599858945</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>0.4168487474551767</v>
-      </c>
-      <c r="D18">
-        <v>0.3926934222235935</v>
-      </c>
       <c r="E18">
-        <v>0.461072634036266</v>
+        <v>0.4624561025274936</v>
       </c>
       <c r="F18">
-        <v>0.4307134896177786</v>
+        <v>0.4466808229322695</v>
       </c>
       <c r="G18">
-        <v>0.1390837096149795</v>
+        <v>0.4037097723076755</v>
       </c>
       <c r="H18">
-        <v>0.2771566879401348</v>
+        <v>0.3789491465846425</v>
       </c>
       <c r="I18">
-        <v>0.258039405063883</v>
+        <v>0.3809105223112681</v>
       </c>
       <c r="J18">
         <v>-0.0008109998315291023</v>
@@ -3260,34 +3188,25 @@
       <c r="AZ18">
         <v>-0.0008109998315291023</v>
       </c>
-      <c r="BA18">
-        <v>-0.0008109998315291023</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>0.4168487474551767</v>
-      </c>
-      <c r="D19">
-        <v>0.3926934222235935</v>
-      </c>
       <c r="E19">
-        <v>0.461072634036266</v>
+        <v>0.4624561025274936</v>
       </c>
       <c r="F19">
-        <v>0.4307134896177786</v>
+        <v>0.4466808229322695</v>
       </c>
       <c r="G19">
-        <v>0.218212375015861</v>
+        <v>0.4037097723076755</v>
       </c>
       <c r="H19">
-        <v>0.3156762896736666</v>
+        <v>0.3789491465846425</v>
       </c>
       <c r="I19">
-        <v>0.3372212414908091</v>
+        <v>0.3809105223112681</v>
       </c>
       <c r="J19">
         <v>0.2240000000000038</v>
@@ -3418,37 +3337,25 @@
       <c r="AZ19">
         <v>0.2240000000000038</v>
       </c>
-      <c r="BA19">
-        <v>0.2240000000000038</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>0.4168487474551767</v>
-      </c>
-      <c r="D20">
-        <v>0.3926934222235935</v>
-      </c>
-      <c r="E20">
-        <v>0.461072634036266</v>
-      </c>
       <c r="F20">
-        <v>0.4307134896177786</v>
+        <v>0.4466808229322695</v>
       </c>
       <c r="G20">
-        <v>0.218212375015861</v>
+        <v>0.4037097723076755</v>
       </c>
       <c r="H20">
-        <v>0.3156762896736666</v>
+        <v>0.3789491465846425</v>
       </c>
       <c r="I20">
-        <v>0.2513391483412732</v>
+        <v>0.3809105223112681</v>
       </c>
       <c r="J20">
-        <v>0.2240000000000038</v>
+        <v>0.2619983643660234</v>
       </c>
       <c r="K20">
         <v>0.2694296772580742</v>
@@ -3576,31 +3483,25 @@
       <c r="AZ20">
         <v>0.2694296772580742</v>
       </c>
-      <c r="BA20">
-        <v>0.2694296772580742</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>0.461072634036266</v>
-      </c>
       <c r="F21">
-        <v>0.4307134896177786</v>
+        <v>0.4466808229322695</v>
       </c>
       <c r="G21">
-        <v>0.218212375015861</v>
+        <v>0.4037097723076755</v>
       </c>
       <c r="H21">
-        <v>0.3156762896736666</v>
+        <v>0.3789491465846425</v>
       </c>
       <c r="I21">
-        <v>0.3337488852512678</v>
+        <v>0.3809105223112681</v>
       </c>
       <c r="J21">
-        <v>0.438999999999993</v>
+        <v>0.2619983643660234</v>
       </c>
       <c r="K21">
         <v>0.3037528065631818</v>
@@ -3728,34 +3629,25 @@
       <c r="AZ21">
         <v>0.3037528065631818</v>
       </c>
-      <c r="BA21">
-        <v>0.3037528065631818</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>0.461072634036266</v>
-      </c>
-      <c r="F22">
-        <v>0.4307134896177786</v>
-      </c>
       <c r="G22">
-        <v>0.218212375015861</v>
+        <v>0.4037097723076755</v>
       </c>
       <c r="H22">
-        <v>0.3156762896736666</v>
+        <v>0.3789491465846425</v>
       </c>
       <c r="I22">
-        <v>0.2750194367111476</v>
+        <v>0.3809105223112681</v>
       </c>
       <c r="J22">
-        <v>0.4289999999999878</v>
+        <v>0.2619983643660234</v>
       </c>
       <c r="K22">
-        <v>0.3064287468130971</v>
+        <v>0.2426006718378744</v>
       </c>
       <c r="L22">
         <v>0.102683801342323</v>
@@ -3880,34 +3772,25 @@
       <c r="AZ22">
         <v>0.102683801342323</v>
       </c>
-      <c r="BA22">
-        <v>0.102683801342323</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>0.461072634036266</v>
-      </c>
-      <c r="F23">
-        <v>0.4307134896177786</v>
-      </c>
       <c r="G23">
-        <v>0.218212375015861</v>
+        <v>0.4037097723076755</v>
       </c>
       <c r="H23">
-        <v>0.3156762896736666</v>
+        <v>0.3789491465846425</v>
       </c>
       <c r="I23">
-        <v>0.300592937416171</v>
+        <v>0.3809105223112681</v>
       </c>
       <c r="J23">
-        <v>0.2865750257471788</v>
+        <v>0.2619983643660234</v>
       </c>
       <c r="K23">
-        <v>0.2867424793899147</v>
+        <v>0.2426006718378744</v>
       </c>
       <c r="L23">
         <v>0.4016405696262808</v>
@@ -4032,37 +3915,25 @@
       <c r="AZ23">
         <v>0.4016405696262808</v>
       </c>
-      <c r="BA23">
-        <v>0.4016405696262808</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>0.461072634036266</v>
-      </c>
-      <c r="F24">
-        <v>0.4307134896177786</v>
-      </c>
-      <c r="G24">
-        <v>0.218212375015861</v>
-      </c>
       <c r="H24">
-        <v>0.3156762896736666</v>
+        <v>0.3789491465846425</v>
       </c>
       <c r="I24">
-        <v>0.300592937416171</v>
+        <v>0.3809105223112681</v>
       </c>
       <c r="J24">
-        <v>0.2865750257471788</v>
+        <v>0.2619983643660234</v>
       </c>
       <c r="K24">
-        <v>0.2600907720923971</v>
+        <v>0.2426006718378744</v>
       </c>
       <c r="L24">
-        <v>0.2279317174843669</v>
+        <v>0.2610336818446626</v>
       </c>
       <c r="M24">
         <v>0.4670353440379102</v>
@@ -4184,31 +4055,25 @@
       <c r="AZ24">
         <v>0.4670353440379102</v>
       </c>
-      <c r="BA24">
-        <v>0.4670353440379102</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>0.218212375015861</v>
-      </c>
       <c r="H25">
-        <v>0.3156762896736666</v>
+        <v>0.3789491465846425</v>
       </c>
       <c r="I25">
-        <v>0.300592937416171</v>
+        <v>0.3809105223112681</v>
       </c>
       <c r="J25">
-        <v>0.2865750257471788</v>
+        <v>0.2619983643660234</v>
       </c>
       <c r="K25">
-        <v>0.2943284363105221</v>
+        <v>0.2426006718378744</v>
       </c>
       <c r="L25">
-        <v>0.1877325460638133</v>
+        <v>0.2610336818446626</v>
       </c>
       <c r="M25">
         <v>0.3229903499871796</v>
@@ -4330,34 +4195,25 @@
       <c r="AZ25">
         <v>0.3229903499871796</v>
       </c>
-      <c r="BA25">
-        <v>0.3229903499871796</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>0.218212375015861</v>
-      </c>
-      <c r="H26">
-        <v>0.3156762896736666</v>
-      </c>
       <c r="I26">
-        <v>0.300592937416171</v>
+        <v>0.3809105223112681</v>
       </c>
       <c r="J26">
-        <v>0.2865750257471788</v>
+        <v>0.2619983643660234</v>
       </c>
       <c r="K26">
-        <v>0.2597361176108137</v>
+        <v>0.2426006718378744</v>
       </c>
       <c r="L26">
-        <v>0.1734820405026909</v>
+        <v>0.2610336818446626</v>
       </c>
       <c r="M26">
-        <v>0.2751691047584472</v>
+        <v>0.2886750356805819</v>
       </c>
       <c r="N26">
         <v>0.344825264879205</v>
@@ -4476,34 +4332,25 @@
       <c r="AZ26">
         <v>0.344825264879205</v>
       </c>
-      <c r="BA26">
-        <v>0.344825264879205</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>0.218212375015861</v>
-      </c>
-      <c r="H27">
-        <v>0.3156762896736666</v>
-      </c>
       <c r="I27">
-        <v>0.300592937416171</v>
+        <v>0.3809105223112681</v>
       </c>
       <c r="J27">
-        <v>0.2865750257471788</v>
+        <v>0.2619983643660234</v>
       </c>
       <c r="K27">
-        <v>0.2453634034795925</v>
+        <v>0.2426006718378744</v>
       </c>
       <c r="L27">
-        <v>0.2139778157598656</v>
+        <v>0.2610336818446626</v>
       </c>
       <c r="M27">
-        <v>0.1674083228736549</v>
+        <v>0.2886750356805819</v>
       </c>
       <c r="N27">
         <v>0.2849999999999966</v>
@@ -4622,37 +4469,25 @@
       <c r="AZ27">
         <v>0.2849999999999966</v>
       </c>
-      <c r="BA27">
-        <v>0.2849999999999966</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>0.218212375015861</v>
-      </c>
-      <c r="H28">
-        <v>0.3156762896736666</v>
-      </c>
-      <c r="I28">
-        <v>0.300592937416171</v>
-      </c>
       <c r="J28">
-        <v>0.2865750257471788</v>
+        <v>0.2619983643660234</v>
       </c>
       <c r="K28">
-        <v>0.2453634034795925</v>
+        <v>0.2426006718378744</v>
       </c>
       <c r="L28">
-        <v>0.2139778157598656</v>
+        <v>0.2610336818446626</v>
       </c>
       <c r="M28">
-        <v>0.1709711880072433</v>
+        <v>0.2886750356805819</v>
       </c>
       <c r="N28">
-        <v>0.289999999999992</v>
+        <v>0.2720546813862626</v>
       </c>
       <c r="O28">
         <v>0.2296800116567681</v>
@@ -4768,31 +4603,25 @@
       <c r="AZ28">
         <v>0.2296800116567681</v>
       </c>
-      <c r="BA28">
-        <v>0.2296800116567681</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>0.300592937416171</v>
-      </c>
       <c r="J29">
-        <v>0.2865750257471788</v>
+        <v>0.2619983643660234</v>
       </c>
       <c r="K29">
-        <v>0.2453634034795925</v>
+        <v>0.2426006718378744</v>
       </c>
       <c r="L29">
-        <v>0.2139778157598656</v>
+        <v>0.2610336818446626</v>
       </c>
       <c r="M29">
-        <v>0.2872485237765687</v>
+        <v>0.2886750356805819</v>
       </c>
       <c r="N29">
-        <v>0.3440000000000083</v>
+        <v>0.2720546813862626</v>
       </c>
       <c r="O29">
         <v>0.319136520886417</v>
@@ -4908,34 +4737,25 @@
       <c r="AZ29">
         <v>0.319136520886417</v>
       </c>
-      <c r="BA29">
-        <v>0.319136520886417</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>0.300592937416171</v>
-      </c>
-      <c r="J30">
-        <v>0.2865750257471788</v>
-      </c>
       <c r="K30">
-        <v>0.2453634034795925</v>
+        <v>0.2426006718378744</v>
       </c>
       <c r="L30">
-        <v>0.2139778157598656</v>
+        <v>0.2610336818446626</v>
       </c>
       <c r="M30">
-        <v>0.335350583200551</v>
+        <v>0.2886750356805819</v>
       </c>
       <c r="N30">
-        <v>0.3440000000000083</v>
+        <v>0.2720546813862626</v>
       </c>
       <c r="O30">
-        <v>0.2709517860987916</v>
+        <v>0.3046174346237336</v>
       </c>
       <c r="P30">
         <v>0.3192030404897963</v>
@@ -5048,34 +4868,25 @@
       <c r="AZ30">
         <v>0.3192030404897963</v>
       </c>
-      <c r="BA30">
-        <v>0.3192030404897963</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>0.300592937416171</v>
-      </c>
-      <c r="J31">
-        <v>0.2865750257471788</v>
-      </c>
       <c r="K31">
-        <v>0.2453634034795925</v>
+        <v>0.2426006718378744</v>
       </c>
       <c r="L31">
-        <v>0.2139778157598656</v>
+        <v>0.2610336818446626</v>
       </c>
       <c r="M31">
-        <v>0.2834250594173341</v>
+        <v>0.2886750356805819</v>
       </c>
       <c r="N31">
-        <v>0.3205928136436086</v>
+        <v>0.2720546813862626</v>
       </c>
       <c r="O31">
-        <v>0.2734322603357384</v>
+        <v>0.3046174346237336</v>
       </c>
       <c r="P31">
         <v>0.3838834518010543</v>
@@ -5188,37 +4999,25 @@
       <c r="AZ31">
         <v>0.3838834518010543</v>
       </c>
-      <c r="BA31">
-        <v>0.3838834518010543</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>0.300592937416171</v>
-      </c>
-      <c r="J32">
-        <v>0.2865750257471788</v>
-      </c>
-      <c r="K32">
-        <v>0.2453634034795925</v>
-      </c>
       <c r="L32">
-        <v>0.2139778157598656</v>
+        <v>0.2610336818446626</v>
       </c>
       <c r="M32">
-        <v>0.2834250594173341</v>
+        <v>0.2886750356805819</v>
       </c>
       <c r="N32">
-        <v>0.3205928136436086</v>
+        <v>0.2720546813862626</v>
       </c>
       <c r="O32">
-        <v>0.3134604603094857</v>
+        <v>0.3046174346237336</v>
       </c>
       <c r="P32">
-        <v>0.3530008076482858</v>
+        <v>0.3176078354706931</v>
       </c>
       <c r="Q32">
         <v>0.1721310865893741</v>
@@ -5328,31 +5127,25 @@
       <c r="AZ32">
         <v>0.1721310865893741</v>
       </c>
-      <c r="BA32">
-        <v>0.1721310865893741</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>0.2453634034795925</v>
-      </c>
       <c r="L33">
-        <v>0.2139778157598656</v>
+        <v>0.2610336818446626</v>
       </c>
       <c r="M33">
-        <v>0.2834250594173341</v>
+        <v>0.2886750356805819</v>
       </c>
       <c r="N33">
-        <v>0.3205928136436086</v>
+        <v>0.2720546813862626</v>
       </c>
       <c r="O33">
-        <v>0.2992861429221563</v>
+        <v>0.3046174346237336</v>
       </c>
       <c r="P33">
-        <v>0.2836408392058871</v>
+        <v>0.3176078354706931</v>
       </c>
       <c r="Q33">
         <v>0.3124151146021887</v>
@@ -5462,34 +5255,25 @@
       <c r="AZ33">
         <v>0.3124151146021887</v>
       </c>
-      <c r="BA33">
-        <v>0.3124151146021887</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>0.2453634034795925</v>
-      </c>
-      <c r="L34">
-        <v>0.2139778157598656</v>
-      </c>
       <c r="M34">
-        <v>0.2834250594173341</v>
+        <v>0.2886750356805819</v>
       </c>
       <c r="N34">
-        <v>0.3205928136436086</v>
+        <v>0.2720546813862626</v>
       </c>
       <c r="O34">
-        <v>0.3332040471845374</v>
+        <v>0.3046174346237336</v>
       </c>
       <c r="P34">
-        <v>0.2964015100368016</v>
+        <v>0.3176078354706931</v>
       </c>
       <c r="Q34">
-        <v>0.3365009955204243</v>
+        <v>0.315630018492989</v>
       </c>
       <c r="R34">
         <v>1.338781480463297</v>
@@ -5596,34 +5380,25 @@
       <c r="AZ34">
         <v>1.338781480463297</v>
       </c>
-      <c r="BA34">
-        <v>1.338781480463297</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>0.2453634034795925</v>
-      </c>
-      <c r="L35">
-        <v>0.2139778157598656</v>
-      </c>
       <c r="M35">
-        <v>0.2834250594173341</v>
+        <v>0.2886750356805819</v>
       </c>
       <c r="N35">
-        <v>0.3205928136436086</v>
+        <v>0.2720546813862626</v>
       </c>
       <c r="O35">
-        <v>0.2991966844260275</v>
+        <v>0.3046174346237336</v>
       </c>
       <c r="P35">
-        <v>0.3137761796591391</v>
+        <v>0.3176078354706931</v>
       </c>
       <c r="Q35">
-        <v>0.3433427153508433</v>
+        <v>0.315630018492989</v>
       </c>
       <c r="R35">
         <v>0.6782258938801533</v>
@@ -5730,37 +5505,25 @@
       <c r="AZ35">
         <v>0.6782258938801533</v>
       </c>
-      <c r="BA35">
-        <v>0.6782258938801533</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>0.2453634034795925</v>
-      </c>
-      <c r="L36">
-        <v>0.2139778157598656</v>
-      </c>
-      <c r="M36">
-        <v>0.2834250594173341</v>
-      </c>
       <c r="N36">
-        <v>0.3205928136436086</v>
+        <v>0.2720546813862626</v>
       </c>
       <c r="O36">
-        <v>0.2991966844260275</v>
+        <v>0.3046174346237336</v>
       </c>
       <c r="P36">
-        <v>0.3137761796591391</v>
+        <v>0.3176078354706931</v>
       </c>
       <c r="Q36">
-        <v>0.3051184965239742</v>
+        <v>0.315630018492989</v>
       </c>
       <c r="R36">
-        <v>0.6763644633477384</v>
+        <v>0.438328186524825</v>
       </c>
       <c r="S36">
         <v>0.5169063711852431</v>
@@ -5864,31 +5627,25 @@
       <c r="AZ36">
         <v>0.5169063711852431</v>
       </c>
-      <c r="BA36">
-        <v>0.5169063711852431</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>0.2834250594173341</v>
-      </c>
       <c r="N37">
-        <v>0.3205928136436086</v>
+        <v>0.2720546813862626</v>
       </c>
       <c r="O37">
-        <v>0.2991966844260275</v>
+        <v>0.3046174346237336</v>
       </c>
       <c r="P37">
-        <v>0.3137761796591391</v>
+        <v>0.3176078354706931</v>
       </c>
       <c r="Q37">
-        <v>0.2827021389734341</v>
+        <v>0.315630018492989</v>
       </c>
       <c r="R37">
-        <v>0.7160336121364139</v>
+        <v>0.438328186524825</v>
       </c>
       <c r="S37">
         <v>0.5229245835751897</v>
@@ -5992,34 +5749,25 @@
       <c r="AZ37">
         <v>0.5229245835751897</v>
       </c>
-      <c r="BA37">
-        <v>0.5229245835751897</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>0.2834250594173341</v>
-      </c>
-      <c r="N38">
-        <v>0.3205928136436086</v>
-      </c>
       <c r="O38">
-        <v>0.2991966844260275</v>
+        <v>0.3046174346237336</v>
       </c>
       <c r="P38">
-        <v>0.3137761796591391</v>
+        <v>0.3176078354706931</v>
       </c>
       <c r="Q38">
-        <v>0.2949394374402772</v>
+        <v>0.315630018492989</v>
       </c>
       <c r="R38">
-        <v>0.6759423534557101</v>
+        <v>0.438328186524825</v>
       </c>
       <c r="S38">
-        <v>0.5106192037588499</v>
+        <v>0.4793287555129481</v>
       </c>
       <c r="T38">
         <v>0.6999999999999886</v>
@@ -6120,34 +5868,25 @@
       <c r="AZ38">
         <v>0.6999999999999886</v>
       </c>
-      <c r="BA38">
-        <v>0.6999999999999886</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>0.2834250594173341</v>
-      </c>
-      <c r="N39">
-        <v>0.3205928136436086</v>
-      </c>
       <c r="O39">
-        <v>0.2991966844260275</v>
+        <v>0.3046174346237336</v>
       </c>
       <c r="P39">
-        <v>0.3137761796591391</v>
+        <v>0.3176078354706931</v>
       </c>
       <c r="Q39">
-        <v>0.3069372998177783</v>
+        <v>0.315630018492989</v>
       </c>
       <c r="R39">
-        <v>0.6494572658919679</v>
+        <v>0.438328186524825</v>
       </c>
       <c r="S39">
-        <v>0.7044994482068461</v>
+        <v>0.4793287555129481</v>
       </c>
       <c r="T39">
         <v>0.8499999999999943</v>
@@ -6248,37 +5987,25 @@
       <c r="AZ39">
         <v>0.8499999999999943</v>
       </c>
-      <c r="BA39">
-        <v>0.8499999999999943</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>0.2834250594173341</v>
-      </c>
-      <c r="N40">
-        <v>0.3205928136436086</v>
-      </c>
-      <c r="O40">
-        <v>0.2991966844260275</v>
-      </c>
       <c r="P40">
-        <v>0.3137761796591391</v>
+        <v>0.3176078354706931</v>
       </c>
       <c r="Q40">
-        <v>0.3069372998177783</v>
+        <v>0.315630018492989</v>
       </c>
       <c r="R40">
-        <v>0.4725298201177139</v>
+        <v>0.438328186524825</v>
       </c>
       <c r="S40">
-        <v>0.3259185388295975</v>
+        <v>0.4793287555129481</v>
       </c>
       <c r="T40">
-        <v>0.5999999999999943</v>
+        <v>0.5794471022586279</v>
       </c>
       <c r="U40">
         <v>0.4000000000000057</v>
@@ -6376,31 +6103,25 @@
       <c r="AZ40">
         <v>0.4000000000000057</v>
       </c>
-      <c r="BA40">
-        <v>0.4000000000000057</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>0.2991966844260275</v>
-      </c>
       <c r="P41">
-        <v>0.3137761796591391</v>
+        <v>0.3176078354706931</v>
       </c>
       <c r="Q41">
-        <v>0.3069372998177783</v>
+        <v>0.315630018492989</v>
       </c>
       <c r="R41">
-        <v>0.3726674967236647</v>
+        <v>0.438328186524825</v>
       </c>
       <c r="S41">
-        <v>0.3005883143292891</v>
+        <v>0.4793287555129481</v>
       </c>
       <c r="T41">
-        <v>0.6000000000000227</v>
+        <v>0.5794471022586279</v>
       </c>
       <c r="U41">
         <v>0.3500000000000085</v>
@@ -6498,34 +6219,25 @@
       <c r="AZ41">
         <v>0.3500000000000085</v>
       </c>
-      <c r="BA41">
-        <v>0.3500000000000085</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>0.2991966844260275</v>
-      </c>
-      <c r="P42">
-        <v>0.3137761796591391</v>
-      </c>
       <c r="Q42">
-        <v>0.3069372998177783</v>
+        <v>0.315630018492989</v>
       </c>
       <c r="R42">
-        <v>0.203914749554059</v>
+        <v>0.438328186524825</v>
       </c>
       <c r="S42">
-        <v>0.3030496560848803</v>
+        <v>0.4793287555129481</v>
       </c>
       <c r="T42">
-        <v>0.4999999999999716</v>
+        <v>0.5794471022586279</v>
       </c>
       <c r="U42">
-        <v>0.25</v>
+        <v>0.5841384530295443</v>
       </c>
       <c r="V42">
         <v>0.1700920104450461</v>
@@ -6620,37 +6332,28 @@
       <c r="AZ42">
         <v>0.1700920104450461</v>
       </c>
-      <c r="BA42">
-        <v>0.1700920104450461</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>0.2991966844260275</v>
-      </c>
-      <c r="P43">
-        <v>0.3137761796591391</v>
-      </c>
       <c r="Q43">
-        <v>0.3069372998177783</v>
+        <v>0.315630018492989</v>
       </c>
       <c r="R43">
-        <v>0.6096332250172907</v>
+        <v>0.438328186524825</v>
       </c>
       <c r="S43">
-        <v>0.5513928604915534</v>
+        <v>0.4793287555129481</v>
       </c>
       <c r="T43">
-        <v>0.4999999999999858</v>
+        <v>0.5794471022586279</v>
       </c>
       <c r="U43">
-        <v>0.25</v>
+        <v>0.5841384530295443</v>
       </c>
       <c r="V43">
-        <v>0.2999999999999829</v>
+        <v>0.5839345454151115</v>
       </c>
       <c r="W43">
         <v>0.2000000000000028</v>
@@ -6742,40 +6445,28 @@
       <c r="AZ43">
         <v>0.2000000000000028</v>
       </c>
-      <c r="BA43">
-        <v>0.2000000000000028</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>0.2991966844260275</v>
-      </c>
-      <c r="P44">
-        <v>0.3137761796591391</v>
-      </c>
-      <c r="Q44">
-        <v>0.3069372998177783</v>
-      </c>
       <c r="R44">
-        <v>0.6096332250172907</v>
+        <v>0.438328186524825</v>
       </c>
       <c r="S44">
-        <v>0.5513928604915534</v>
+        <v>0.4793287555129481</v>
       </c>
       <c r="T44">
-        <v>0.5000000000000142</v>
+        <v>0.5794471022586279</v>
       </c>
       <c r="U44">
-        <v>0.25</v>
+        <v>0.5841384530295443</v>
       </c>
       <c r="V44">
-        <v>0.2999999999999829</v>
+        <v>0.5839345454151115</v>
       </c>
       <c r="W44">
-        <v>0.2999999999999829</v>
+        <v>0.5726930339548929</v>
       </c>
       <c r="X44">
         <v>0.4999999999999858</v>
@@ -6864,37 +6555,31 @@
       <c r="AZ44">
         <v>0.4999999999999858</v>
       </c>
-      <c r="BA44">
-        <v>0.4999999999999858</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>0.3069372998177783</v>
-      </c>
       <c r="R45">
-        <v>0.6096332250172907</v>
+        <v>0.438328186524825</v>
       </c>
       <c r="S45">
-        <v>0.5513928604915534</v>
+        <v>0.4793287555129481</v>
       </c>
       <c r="T45">
-        <v>0.4999999999999858</v>
+        <v>0.5794471022586279</v>
       </c>
       <c r="U45">
-        <v>0.25</v>
+        <v>0.5841384530295443</v>
       </c>
       <c r="V45">
-        <v>0.2999999999999829</v>
+        <v>0.5839345454151115</v>
       </c>
       <c r="W45">
-        <v>0.4000000000000057</v>
+        <v>0.5726930339548929</v>
       </c>
       <c r="X45">
-        <v>0.5999999999999943</v>
+        <v>0.4888148859085618</v>
       </c>
       <c r="Y45">
         <v>0.5999999999999943</v>
@@ -6980,40 +6665,31 @@
       <c r="AZ45">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA45">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>0.3069372998177783</v>
-      </c>
-      <c r="R46">
-        <v>0.6096332250172907</v>
-      </c>
       <c r="S46">
-        <v>0.5513928604915534</v>
+        <v>0.4793287555129481</v>
       </c>
       <c r="T46">
-        <v>0.5000000000000142</v>
+        <v>0.5794471022586279</v>
       </c>
       <c r="U46">
-        <v>0.25</v>
+        <v>0.5841384530295443</v>
       </c>
       <c r="V46">
-        <v>0.2999999999999829</v>
+        <v>0.5839345454151115</v>
       </c>
       <c r="W46">
-        <v>0.4000000000000057</v>
+        <v>0.5726930339548929</v>
       </c>
       <c r="X46">
-        <v>0.4000000000000057</v>
+        <v>0.4888148859085618</v>
       </c>
       <c r="Y46">
-        <v>0.4000000000000057</v>
+        <v>0.4809922965205459</v>
       </c>
       <c r="Z46">
         <v>0.5</v>
@@ -7096,43 +6772,34 @@
       <c r="AZ46">
         <v>0.5</v>
       </c>
-      <c r="BA46">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>0.3069372998177783</v>
-      </c>
-      <c r="R47">
-        <v>0.6096332250172907</v>
-      </c>
       <c r="S47">
-        <v>0.5513928604915534</v>
+        <v>0.4793287555129481</v>
       </c>
       <c r="T47">
-        <v>0.5772924583575161</v>
+        <v>0.5794471022586279</v>
       </c>
       <c r="U47">
-        <v>0.4072924583575187</v>
+        <v>0.5841384530295443</v>
       </c>
       <c r="V47">
-        <v>0.2999999999999829</v>
+        <v>0.5839345454151115</v>
       </c>
       <c r="W47">
-        <v>0.4000000000000057</v>
+        <v>0.5726930339548929</v>
       </c>
       <c r="X47">
-        <v>0.4999999999999858</v>
+        <v>0.4888148859085618</v>
       </c>
       <c r="Y47">
-        <v>0.4999999999999858</v>
+        <v>0.4809922965205459</v>
       </c>
       <c r="Z47">
-        <v>0.7</v>
+        <v>0.4793016594020216</v>
       </c>
       <c r="AA47">
         <v>0.6648928967370864</v>
@@ -7212,46 +6879,34 @@
       <c r="AZ47">
         <v>0.6648928967370864</v>
       </c>
-      <c r="BA47">
-        <v>0.6648928967370864</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>0.3069372998177783</v>
-      </c>
-      <c r="R48">
-        <v>0.6096332250172907</v>
-      </c>
-      <c r="S48">
-        <v>0.5513928604915534</v>
-      </c>
       <c r="T48">
-        <v>0.5772924583575161</v>
+        <v>0.5794471022586279</v>
       </c>
       <c r="U48">
-        <v>0.4072924583575187</v>
+        <v>0.5841384530295443</v>
       </c>
       <c r="V48">
-        <v>0.2999999999999829</v>
+        <v>0.5839345454151115</v>
       </c>
       <c r="W48">
-        <v>0.4000000000000057</v>
+        <v>0.5726930339548929</v>
       </c>
       <c r="X48">
-        <v>0.4999999999999858</v>
+        <v>0.4888148859085618</v>
       </c>
       <c r="Y48">
-        <v>0.4999999999999858</v>
+        <v>0.4809922965205459</v>
       </c>
       <c r="Z48">
-        <v>0.6</v>
+        <v>0.4793016594020216</v>
       </c>
       <c r="AA48">
-        <v>0.5799999999999841</v>
+        <v>0.4934984907182113</v>
       </c>
       <c r="AB48">
         <v>0.7</v>
@@ -7328,46 +6983,37 @@
       <c r="AZ48">
         <v>0.7</v>
       </c>
-      <c r="BA48">
-        <v>0.7</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>0.6096332250172907</v>
-      </c>
-      <c r="S49">
-        <v>0.5513928604915534</v>
-      </c>
       <c r="T49">
-        <v>0.5772924583575161</v>
+        <v>0.5794471022586279</v>
       </c>
       <c r="U49">
-        <v>0.4072924583575187</v>
+        <v>0.5841384530295443</v>
       </c>
       <c r="V49">
-        <v>0.2999999999999829</v>
+        <v>0.5839345454151115</v>
       </c>
       <c r="W49">
-        <v>0.2999999999999829</v>
+        <v>0.5726930339548929</v>
       </c>
       <c r="X49">
-        <v>0.4000000000000057</v>
+        <v>0.4888148859085618</v>
       </c>
       <c r="Y49">
-        <v>0.4000000000000057</v>
+        <v>0.4809922965205459</v>
       </c>
       <c r="Z49">
-        <v>0.4</v>
+        <v>0.4793016594020216</v>
       </c>
       <c r="AA49">
-        <v>0.3500000000000085</v>
+        <v>0.4934984907182113</v>
       </c>
       <c r="AB49">
-        <v>0.4</v>
+        <v>0.4934984907182124</v>
       </c>
       <c r="AC49">
         <v>0.3999908011606834</v>
@@ -7441,49 +7087,37 @@
       <c r="AZ49">
         <v>0.3999908011606834</v>
       </c>
-      <c r="BA49">
-        <v>0.3999908011606834</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>0.6096332250172907</v>
-      </c>
-      <c r="S50">
-        <v>0.5513928604915534</v>
-      </c>
-      <c r="T50">
-        <v>0.5772924583575161</v>
-      </c>
       <c r="U50">
-        <v>0.4072924583575187</v>
+        <v>0.5841384530295443</v>
       </c>
       <c r="V50">
-        <v>0.2999999999999829</v>
+        <v>0.5839345454151115</v>
       </c>
       <c r="W50">
-        <v>0.2999999999999829</v>
+        <v>0.5726930339548929</v>
       </c>
       <c r="X50">
-        <v>0.4000000000000057</v>
+        <v>0.4888148859085618</v>
       </c>
       <c r="Y50">
-        <v>0.4000000000000057</v>
+        <v>0.4809922965205459</v>
       </c>
       <c r="Z50">
-        <v>0.3</v>
+        <v>0.4793016594020216</v>
       </c>
       <c r="AA50">
-        <v>0.3500000000000085</v>
+        <v>0.4934984907182113</v>
       </c>
       <c r="AB50">
-        <v>0.5</v>
+        <v>0.4934984907182124</v>
       </c>
       <c r="AC50">
-        <v>0.4999999999999858</v>
+        <v>0.4484975708342813</v>
       </c>
       <c r="AD50">
         <v>0.5200000000000102</v>
@@ -7554,52 +7188,40 @@
       <c r="AZ50">
         <v>0.5200000000000102</v>
       </c>
-      <c r="BA50">
-        <v>0.5200000000000102</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>0.6096332250172907</v>
-      </c>
-      <c r="S51">
-        <v>0.5513928604915534</v>
-      </c>
-      <c r="T51">
-        <v>0.5772924583575161</v>
-      </c>
       <c r="U51">
-        <v>0.4072924583575187</v>
+        <v>0.5841384530295443</v>
       </c>
       <c r="V51">
-        <v>0.2920092010444918</v>
+        <v>0.5839345454151115</v>
       </c>
       <c r="W51">
-        <v>0.3220092010445029</v>
+        <v>0.5726930339548929</v>
       </c>
       <c r="X51">
-        <v>0.4020092010445026</v>
+        <v>0.4888148859085618</v>
       </c>
       <c r="Y51">
-        <v>0.2799999999999869</v>
+        <v>0.4809922965205459</v>
       </c>
       <c r="Z51">
-        <v>0.3</v>
+        <v>0.4793016594020216</v>
       </c>
       <c r="AA51">
-        <v>0.4299999999999926</v>
+        <v>0.4934984907182113</v>
       </c>
       <c r="AB51">
-        <v>0.5</v>
+        <v>0.4934984907182124</v>
       </c>
       <c r="AC51">
-        <v>0.5200000000000102</v>
+        <v>0.4484975708342813</v>
       </c>
       <c r="AD51">
-        <v>0.5200000000000102</v>
+        <v>0.4604975708342818</v>
       </c>
       <c r="AE51">
         <v>0.5999999999999943</v>
@@ -7667,55 +7289,40 @@
       <c r="AZ51">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA51">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>0.6096332250172907</v>
-      </c>
-      <c r="S52">
-        <v>0.5513928604915534</v>
-      </c>
-      <c r="T52">
-        <v>0.5772924583575161</v>
-      </c>
-      <c r="U52">
-        <v>0.4072924583575187</v>
-      </c>
       <c r="V52">
-        <v>0.2920092010444918</v>
+        <v>0.5839345454151115</v>
       </c>
       <c r="W52">
-        <v>0.3220092010445029</v>
+        <v>0.5726930339548929</v>
       </c>
       <c r="X52">
-        <v>0.4020092010445026</v>
+        <v>0.4888148859085618</v>
       </c>
       <c r="Y52">
-        <v>0.2799999999999869</v>
+        <v>0.4809922965205459</v>
       </c>
       <c r="Z52">
-        <v>0.4</v>
+        <v>0.4793016594020216</v>
       </c>
       <c r="AA52">
-        <v>0.4099999999999966</v>
+        <v>0.4934984907182113</v>
       </c>
       <c r="AB52">
-        <v>0.5</v>
+        <v>0.4934984907182124</v>
       </c>
       <c r="AC52">
-        <v>0.4999999999999858</v>
+        <v>0.4484975708342813</v>
       </c>
       <c r="AD52">
-        <v>0.5200000000000102</v>
+        <v>0.4604975708342818</v>
       </c>
       <c r="AE52">
-        <v>0.7999999999999972</v>
+        <v>0.4854975708342804</v>
       </c>
       <c r="AF52">
         <v>0.5</v>
@@ -7780,52 +7387,40 @@
       <c r="AZ52">
         <v>0.5</v>
       </c>
-      <c r="BA52">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>0.5772924583575161</v>
-      </c>
-      <c r="U53">
-        <v>0.4072924583575187</v>
-      </c>
-      <c r="V53">
-        <v>0.2920092010444918</v>
-      </c>
       <c r="W53">
-        <v>0.3220092010445029</v>
+        <v>0.5726930339548929</v>
       </c>
       <c r="X53">
-        <v>0.4020092010445026</v>
+        <v>0.4888148859085618</v>
       </c>
       <c r="Y53">
-        <v>0.2799999999999869</v>
+        <v>0.4809922965205459</v>
       </c>
       <c r="Z53">
-        <v>0.4</v>
+        <v>0.4793016594020216</v>
       </c>
       <c r="AA53">
-        <v>0.3799999999999812</v>
+        <v>0.4934984907182113</v>
       </c>
       <c r="AB53">
-        <v>0.4</v>
+        <v>0.4934984907182124</v>
       </c>
       <c r="AC53">
-        <v>0.4399999999999977</v>
+        <v>0.4484975708342813</v>
       </c>
       <c r="AD53">
-        <v>0.4999999999999858</v>
+        <v>0.4604975708342818</v>
       </c>
       <c r="AE53">
-        <v>0.4999999999999858</v>
+        <v>0.4854975708342804</v>
       </c>
       <c r="AF53">
-        <v>1.4</v>
+        <v>0.3499999990000049</v>
       </c>
       <c r="AG53">
         <v>0.3499999990000049</v>
@@ -7887,55 +7482,40 @@
       <c r="AZ53">
         <v>0.3499999990000049</v>
       </c>
-      <c r="BA53">
-        <v>0.3499999990000049</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>0.5772924583575161</v>
-      </c>
-      <c r="U54">
-        <v>0.4072924583575187</v>
-      </c>
-      <c r="V54">
-        <v>0.2920092010444918</v>
-      </c>
-      <c r="W54">
-        <v>0.3220092010445029</v>
-      </c>
       <c r="X54">
-        <v>0.4020092010445026</v>
+        <v>0.4888148859085618</v>
       </c>
       <c r="Y54">
-        <v>0.2799999999999869</v>
+        <v>0.4809922965205459</v>
       </c>
       <c r="Z54">
-        <v>0.4</v>
+        <v>0.4793016594020216</v>
       </c>
       <c r="AA54">
-        <v>0.3599999999999994</v>
+        <v>0.4934984907182113</v>
       </c>
       <c r="AB54">
-        <v>0.3</v>
+        <v>0.4934984907182124</v>
       </c>
       <c r="AC54">
-        <v>0.4399999999999977</v>
+        <v>0.4484975708342813</v>
       </c>
       <c r="AD54">
-        <v>0.4999999999999858</v>
+        <v>0.4604975708342818</v>
       </c>
       <c r="AE54">
-        <v>0.4599999999999937</v>
+        <v>0.4854975708342804</v>
       </c>
       <c r="AF54">
-        <v>0.8</v>
+        <v>0.533488369689776</v>
       </c>
       <c r="AG54">
-        <v>0.5999999999999943</v>
+        <v>0.7000000000000171</v>
       </c>
       <c r="AH54">
         <v>0.7000000000000171</v>
@@ -7994,58 +7574,40 @@
       <c r="AZ54">
         <v>0.7000000000000171</v>
       </c>
-      <c r="BA54">
-        <v>0.7000000000000171</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>0.5772924583575161</v>
-      </c>
-      <c r="U55">
-        <v>0.4072924583575187</v>
-      </c>
-      <c r="V55">
-        <v>0.2920092010444918</v>
-      </c>
-      <c r="W55">
-        <v>0.3220092010445029</v>
-      </c>
-      <c r="X55">
-        <v>0.4020092010445026</v>
-      </c>
       <c r="Y55">
-        <v>0.3919999999999931</v>
+        <v>0.4809922965205459</v>
       </c>
       <c r="Z55">
-        <v>0.4599999999999994</v>
+        <v>0.4793016594020216</v>
       </c>
       <c r="AA55">
-        <v>0.4624892896737052</v>
+        <v>0.4934984907182113</v>
       </c>
       <c r="AB55">
-        <v>0.5064892896737081</v>
+        <v>0.4934984907182124</v>
       </c>
       <c r="AC55">
-        <v>0.4399999999999977</v>
+        <v>0.4484975708342813</v>
       </c>
       <c r="AD55">
-        <v>0.4999999999999858</v>
+        <v>0.4604975708342818</v>
       </c>
       <c r="AE55">
-        <v>0.4899999999999949</v>
+        <v>0.4854975708342804</v>
       </c>
       <c r="AF55">
-        <v>0.3</v>
+        <v>0.533488369689776</v>
       </c>
       <c r="AG55">
-        <v>0.4000000000000057</v>
+        <v>0.5534883696897791</v>
       </c>
       <c r="AH55">
-        <v>0.4000000000000057</v>
+        <v>0.7000000000000171</v>
       </c>
       <c r="AI55">
         <v>0.7000000000000171</v>
@@ -8101,61 +7663,40 @@
       <c r="AZ55">
         <v>0.7000000000000171</v>
       </c>
-      <c r="BA55">
-        <v>0.7000000000000171</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>0.5772924583575161</v>
-      </c>
-      <c r="U56">
-        <v>0.4072924583575187</v>
-      </c>
-      <c r="V56">
-        <v>0.2920092010444918</v>
-      </c>
-      <c r="W56">
-        <v>0.3220092010445029</v>
-      </c>
-      <c r="X56">
-        <v>0.4020092010445026</v>
-      </c>
-      <c r="Y56">
-        <v>0.3919999999999931</v>
-      </c>
       <c r="Z56">
-        <v>0.4599999999999994</v>
+        <v>0.4793016594020216</v>
       </c>
       <c r="AA56">
-        <v>0.4624892896737052</v>
+        <v>0.4934984907182113</v>
       </c>
       <c r="AB56">
-        <v>0.5064892896737081</v>
+        <v>0.4934984907182124</v>
       </c>
       <c r="AC56">
-        <v>0.4399999999999977</v>
+        <v>0.4484975708342813</v>
       </c>
       <c r="AD56">
-        <v>0.4999999999999858</v>
+        <v>0.4604975708342818</v>
       </c>
       <c r="AE56">
-        <v>0.4899999999999949</v>
+        <v>0.4854975708342804</v>
       </c>
       <c r="AF56">
-        <v>0.4</v>
+        <v>0.533488369689776</v>
       </c>
       <c r="AG56">
-        <v>0.4000000000000057</v>
+        <v>0.5534883696897791</v>
       </c>
       <c r="AH56">
-        <v>0.4000000000000057</v>
+        <v>0.5634883696897813</v>
       </c>
       <c r="AI56">
-        <v>1.099999999999994</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="AJ56">
         <v>0.7999999999999972</v>
@@ -8208,58 +7749,40 @@
       <c r="AZ56">
         <v>0.7999999999999972</v>
       </c>
-      <c r="BA56">
-        <v>0.7999999999999972</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>0.2920092010444918</v>
-      </c>
-      <c r="W57">
-        <v>0.3220092010445029</v>
-      </c>
-      <c r="X57">
-        <v>0.4020092010445026</v>
-      </c>
-      <c r="Y57">
-        <v>0.3919999999999931</v>
-      </c>
-      <c r="Z57">
-        <v>0.4599999999999994</v>
-      </c>
       <c r="AA57">
-        <v>0.4624892896737052</v>
+        <v>0.4934984907182113</v>
       </c>
       <c r="AB57">
-        <v>0.5064892896737081</v>
+        <v>0.4934984907182124</v>
       </c>
       <c r="AC57">
-        <v>0.4399999999999977</v>
+        <v>0.4484975708342813</v>
       </c>
       <c r="AD57">
-        <v>0.4799999999999898</v>
+        <v>0.4604975708342818</v>
       </c>
       <c r="AE57">
-        <v>0.4899999999999949</v>
+        <v>0.4854975708342804</v>
       </c>
       <c r="AF57">
-        <v>0.4</v>
+        <v>0.533488369689776</v>
       </c>
       <c r="AG57">
-        <v>0.4000000000000057</v>
+        <v>0.5534883696897791</v>
       </c>
       <c r="AH57">
-        <v>0.2000000000000028</v>
+        <v>0.5634883696897813</v>
       </c>
       <c r="AI57">
-        <v>0.2999999999999829</v>
+        <v>0.593488369689781</v>
       </c>
       <c r="AJ57">
-        <v>0.4999999999999858</v>
+        <v>-0.7999999999999972</v>
       </c>
       <c r="AK57">
         <v>-0.7999999999999972</v>
@@ -8309,61 +7832,40 @@
       <c r="AZ57">
         <v>-0.7999999999999972</v>
       </c>
-      <c r="BA57">
-        <v>-0.7999999999999972</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>0.2920092010444918</v>
-      </c>
-      <c r="W58">
-        <v>0.3220092010445029</v>
-      </c>
-      <c r="X58">
-        <v>0.4020092010445026</v>
-      </c>
-      <c r="Y58">
-        <v>0.3919999999999931</v>
-      </c>
-      <c r="Z58">
-        <v>0.4599999999999994</v>
-      </c>
-      <c r="AA58">
-        <v>0.4624892896737052</v>
-      </c>
       <c r="AB58">
-        <v>0.5064892896737081</v>
+        <v>0.4934984907182124</v>
       </c>
       <c r="AC58">
-        <v>0.4399999999999977</v>
+        <v>0.4484975708342813</v>
       </c>
       <c r="AD58">
-        <v>0.4799999999999898</v>
+        <v>0.4604975708342818</v>
       </c>
       <c r="AE58">
-        <v>0.4899999999999949</v>
+        <v>0.4854975708342804</v>
       </c>
       <c r="AF58">
-        <v>0.4</v>
+        <v>0.533488369689776</v>
       </c>
       <c r="AG58">
-        <v>0.4000000000000057</v>
+        <v>0.5534883696897791</v>
       </c>
       <c r="AH58">
-        <v>0.2000000000000028</v>
+        <v>0.5634883696897813</v>
       </c>
       <c r="AI58">
-        <v>0.2000000000000028</v>
+        <v>0.593488369689781</v>
       </c>
       <c r="AJ58">
-        <v>-0.3999999999999915</v>
+        <v>0.4469990800160727</v>
       </c>
       <c r="AK58">
-        <v>-0.7000000000000028</v>
+        <v>0.4999999999999858</v>
       </c>
       <c r="AL58">
         <v>0.4999999999999858</v>
@@ -8410,64 +7912,40 @@
       <c r="AZ58">
         <v>0.4999999999999858</v>
       </c>
-      <c r="BA58">
-        <v>0.4999999999999858</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>0.2920092010444918</v>
-      </c>
-      <c r="W59">
-        <v>0.3220092010445029</v>
-      </c>
-      <c r="X59">
-        <v>0.4020092010445026</v>
-      </c>
-      <c r="Y59">
-        <v>0.3919999999999931</v>
-      </c>
-      <c r="Z59">
-        <v>0.4599999999999994</v>
-      </c>
-      <c r="AA59">
-        <v>0.4624892896737052</v>
-      </c>
-      <c r="AB59">
-        <v>0.5064892896737081</v>
-      </c>
       <c r="AC59">
-        <v>0.4559990801160652</v>
+        <v>0.4484975708342813</v>
       </c>
       <c r="AD59">
-        <v>0.4919990801160637</v>
+        <v>0.4604975708342818</v>
       </c>
       <c r="AE59">
-        <v>0.5239990801160644</v>
+        <v>0.4854975708342804</v>
       </c>
       <c r="AF59">
-        <v>0.5719990801160689</v>
+        <v>0.533488369689776</v>
       </c>
       <c r="AG59">
-        <v>0.4000000000000057</v>
+        <v>0.5534883696897791</v>
       </c>
       <c r="AH59">
-        <v>0.2000000000000028</v>
+        <v>0.5634883696897813</v>
       </c>
       <c r="AI59">
-        <v>0.09999999999999432</v>
+        <v>0.593488369689781</v>
       </c>
       <c r="AJ59">
-        <v>-0.5999999999999943</v>
+        <v>0.4469990800160727</v>
       </c>
       <c r="AK59">
-        <v>0</v>
+        <v>0.4269990800160713</v>
       </c>
       <c r="AL59">
-        <v>0.2999999999999829</v>
+        <v>2.842170943040401E-14</v>
       </c>
       <c r="AM59">
         <v>2.842170943040401E-14</v>
@@ -8511,67 +7989,40 @@
       <c r="AZ59">
         <v>2.842170943040401E-14</v>
       </c>
-      <c r="BA59">
-        <v>2.842170943040401E-14</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>0.2920092010444918</v>
-      </c>
-      <c r="W60">
-        <v>0.3220092010445029</v>
-      </c>
-      <c r="X60">
-        <v>0.4020092010445026</v>
-      </c>
-      <c r="Y60">
-        <v>0.3919999999999931</v>
-      </c>
-      <c r="Z60">
-        <v>0.4599999999999994</v>
-      </c>
-      <c r="AA60">
-        <v>0.4624892896737052</v>
-      </c>
-      <c r="AB60">
-        <v>0.5064892896737081</v>
-      </c>
-      <c r="AC60">
-        <v>0.4559990801160652</v>
-      </c>
       <c r="AD60">
-        <v>0.4919990801160637</v>
+        <v>0.4604975708342818</v>
       </c>
       <c r="AE60">
-        <v>0.5239990801160644</v>
+        <v>0.4854975708342804</v>
       </c>
       <c r="AF60">
-        <v>0.5719990801160689</v>
+        <v>0.533488369689776</v>
       </c>
       <c r="AG60">
-        <v>0.4000000000000057</v>
+        <v>0.5534883696897791</v>
       </c>
       <c r="AH60">
-        <v>0.2000000000000028</v>
+        <v>0.5634883696897813</v>
       </c>
       <c r="AI60">
-        <v>0.09999999999999432</v>
+        <v>0.593488369689781</v>
       </c>
       <c r="AJ60">
-        <v>0.2000000000000028</v>
+        <v>0.4469990800160727</v>
       </c>
       <c r="AK60">
-        <v>0.09999999999999432</v>
+        <v>0.4269990800160713</v>
       </c>
       <c r="AL60">
-        <v>-0.5999999999999943</v>
+        <v>0.3869999999000058</v>
       </c>
       <c r="AM60">
-        <v>-0.2000000000000028</v>
+        <v>0.5000000000000142</v>
       </c>
       <c r="AN60">
         <v>0.5000000000000142</v>
@@ -8612,61 +8063,40 @@
       <c r="AZ60">
         <v>0.5000000000000142</v>
       </c>
-      <c r="BA60">
-        <v>0.5000000000000142</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>0.3919999999999931</v>
-      </c>
-      <c r="Z61">
-        <v>0.4599999999999994</v>
-      </c>
-      <c r="AA61">
-        <v>0.4624892896737052</v>
-      </c>
-      <c r="AB61">
-        <v>0.5064892896737081</v>
-      </c>
-      <c r="AC61">
-        <v>0.4559990801160652</v>
-      </c>
-      <c r="AD61">
-        <v>0.4919990801160637</v>
-      </c>
       <c r="AE61">
-        <v>0.5239990801160644</v>
+        <v>0.4854975708342804</v>
       </c>
       <c r="AF61">
-        <v>0.5719990801160689</v>
+        <v>0.533488369689776</v>
       </c>
       <c r="AG61">
-        <v>0.4000000000000057</v>
+        <v>0.5534883696897791</v>
       </c>
       <c r="AH61">
-        <v>0.2000000000000028</v>
+        <v>0.5634883696897813</v>
       </c>
       <c r="AI61">
-        <v>0.09999999999999432</v>
+        <v>0.593488369689781</v>
       </c>
       <c r="AJ61">
-        <v>0.4999999999999858</v>
+        <v>0.4469990800160727</v>
       </c>
       <c r="AK61">
-        <v>0.09999999999999432</v>
+        <v>0.4269990800160713</v>
       </c>
       <c r="AL61">
-        <v>-0.5999999999999943</v>
+        <v>0.3869999999000058</v>
       </c>
       <c r="AM61">
-        <v>-0.4000000000000057</v>
+        <v>0.3849999999000062</v>
       </c>
       <c r="AN61">
-        <v>0.09999999999999432</v>
+        <v>0.7000000000000171</v>
       </c>
       <c r="AO61">
         <v>0.7000000000000171</v>
@@ -8704,64 +8134,40 @@
       <c r="AZ61">
         <v>0.7000000000000171</v>
       </c>
-      <c r="BA61">
-        <v>0.7000000000000171</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>0.3919999999999931</v>
-      </c>
-      <c r="Z62">
-        <v>0.4599999999999994</v>
-      </c>
-      <c r="AA62">
-        <v>0.4624892896737052</v>
-      </c>
-      <c r="AB62">
-        <v>0.5064892896737081</v>
-      </c>
-      <c r="AC62">
-        <v>0.4559990801160652</v>
-      </c>
-      <c r="AD62">
-        <v>0.4919990801160637</v>
-      </c>
-      <c r="AE62">
-        <v>0.5239990801160644</v>
-      </c>
       <c r="AF62">
-        <v>0.5719990801160689</v>
+        <v>0.533488369689776</v>
       </c>
       <c r="AG62">
-        <v>0.4000000000000057</v>
+        <v>0.5534883696897791</v>
       </c>
       <c r="AH62">
-        <v>0.09999999999999432</v>
+        <v>0.5634883696897813</v>
       </c>
       <c r="AI62">
-        <v>0.09999999999999432</v>
+        <v>0.593488369689781</v>
       </c>
       <c r="AJ62">
-        <v>0.4999999999999858</v>
+        <v>0.4469990800160727</v>
       </c>
       <c r="AK62">
-        <v>0.09999999999999432</v>
+        <v>0.4269990800160713</v>
       </c>
       <c r="AL62">
-        <v>0.09999999999999432</v>
+        <v>0.3869999999000058</v>
       </c>
       <c r="AM62">
-        <v>0.2999999999999829</v>
+        <v>0.3849999999000062</v>
       </c>
       <c r="AN62">
-        <v>0.2999999999999829</v>
+        <v>0.3949999999000084</v>
       </c>
       <c r="AO62">
-        <v>-0.1999999999999744</v>
+        <v>-0.9999999999999858</v>
       </c>
       <c r="AP62">
         <v>-0.9999999999999858</v>
@@ -8796,67 +8202,43 @@
       <c r="AZ62">
         <v>-0.9999999999999858</v>
       </c>
-      <c r="BA62">
-        <v>-0.9999999999999858</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>0.3919999999999931</v>
-      </c>
-      <c r="Z63">
-        <v>0.4599999999999994</v>
-      </c>
-      <c r="AA63">
-        <v>0.4624892896737052</v>
-      </c>
-      <c r="AB63">
-        <v>0.5064892896737081</v>
-      </c>
-      <c r="AC63">
-        <v>0.4559990801160652</v>
-      </c>
-      <c r="AD63">
-        <v>0.4919990801160637</v>
-      </c>
-      <c r="AE63">
-        <v>0.5239990801160644</v>
-      </c>
       <c r="AF63">
-        <v>0.5719990801160689</v>
+        <v>0.533488369689776</v>
       </c>
       <c r="AG63">
-        <v>0.4149999999000045</v>
+        <v>0.5534883696897791</v>
       </c>
       <c r="AH63">
-        <v>0.2949999999000042</v>
+        <v>0.5634883696897813</v>
       </c>
       <c r="AI63">
-        <v>0.3749999998999997</v>
+        <v>0.593488369689781</v>
       </c>
       <c r="AJ63">
-        <v>0.3249999999000011</v>
+        <v>0.4469990800160727</v>
       </c>
       <c r="AK63">
-        <v>0.09999999999999432</v>
+        <v>0.4269990800160713</v>
       </c>
       <c r="AL63">
-        <v>0.1500000000000057</v>
+        <v>0.3869999999000058</v>
       </c>
       <c r="AM63">
-        <v>0.2000000000000028</v>
+        <v>0.3849999999000062</v>
       </c>
       <c r="AN63">
-        <v>0.2000000000000028</v>
+        <v>0.3949999999000084</v>
       </c>
       <c r="AO63">
-        <v>0.4999999999999858</v>
+        <v>0.2449999999000099</v>
       </c>
       <c r="AP63">
-        <v>0.2000000000000028</v>
+        <v>-0.5</v>
       </c>
       <c r="AQ63">
         <v>-0.5</v>
@@ -8888,70 +8270,43 @@
       <c r="AZ63">
         <v>-0.5</v>
       </c>
-      <c r="BA63">
-        <v>-0.5</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>0.3919999999999931</v>
-      </c>
-      <c r="Z64">
-        <v>0.4599999999999994</v>
-      </c>
-      <c r="AA64">
-        <v>0.4624892896737052</v>
-      </c>
-      <c r="AB64">
-        <v>0.5064892896737081</v>
-      </c>
-      <c r="AC64">
-        <v>0.4559990801160652</v>
-      </c>
-      <c r="AD64">
-        <v>0.4919990801160637</v>
-      </c>
-      <c r="AE64">
-        <v>0.5239990801160644</v>
-      </c>
-      <c r="AF64">
-        <v>0.5719990801160689</v>
-      </c>
       <c r="AG64">
-        <v>0.4149999999000045</v>
+        <v>0.5534883696897791</v>
       </c>
       <c r="AH64">
-        <v>0.2949999999000042</v>
+        <v>0.5634883696897813</v>
       </c>
       <c r="AI64">
-        <v>0.3749999998999997</v>
+        <v>0.593488369689781</v>
       </c>
       <c r="AJ64">
-        <v>0.3249999999000011</v>
+        <v>0.4469990800160727</v>
       </c>
       <c r="AK64">
-        <v>0.09999999999999432</v>
+        <v>0.4269990800160713</v>
       </c>
       <c r="AL64">
-        <v>0.2000000000000028</v>
+        <v>0.3869999999000058</v>
       </c>
       <c r="AM64">
-        <v>0.2000000000000028</v>
+        <v>0.3849999999000062</v>
       </c>
       <c r="AN64">
-        <v>0.3500000000000085</v>
+        <v>0.3949999999000084</v>
       </c>
       <c r="AO64">
-        <v>0.4999999999999858</v>
+        <v>0.2449999999000099</v>
       </c>
       <c r="AP64">
-        <v>0.7999999999999972</v>
+        <v>0.1600000000000094</v>
       </c>
       <c r="AQ64">
-        <v>0.4000000000000057</v>
+        <v>2.799999999999997</v>
       </c>
       <c r="AR64">
         <v>2.799999999999997</v>
@@ -8980,58 +8335,40 @@
       <c r="AZ64">
         <v>2.799999999999997</v>
       </c>
-      <c r="BA64">
-        <v>2.799999999999997</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>0.4559990801160652</v>
-      </c>
-      <c r="AD65">
-        <v>0.4919990801160637</v>
-      </c>
-      <c r="AE65">
-        <v>0.5239990801160644</v>
-      </c>
-      <c r="AF65">
-        <v>0.5719990801160689</v>
-      </c>
-      <c r="AG65">
-        <v>0.4149999999000045</v>
-      </c>
       <c r="AH65">
-        <v>0.2949999999000042</v>
+        <v>0.5634883696897813</v>
       </c>
       <c r="AI65">
-        <v>0.3749999998999997</v>
+        <v>0.593488369689781</v>
       </c>
       <c r="AJ65">
-        <v>0.3249999999000011</v>
+        <v>0.4469990800160727</v>
       </c>
       <c r="AK65">
-        <v>0.09999999999999432</v>
+        <v>0.4269990800160713</v>
       </c>
       <c r="AL65">
-        <v>0.2000000000000028</v>
+        <v>0.3869999999000058</v>
       </c>
       <c r="AM65">
-        <v>0.2000000000000028</v>
+        <v>0.3849999999000062</v>
       </c>
       <c r="AN65">
-        <v>0.2999999999999829</v>
+        <v>0.3949999999000084</v>
       </c>
       <c r="AO65">
-        <v>0.2999999999999829</v>
+        <v>0.2449999999000099</v>
       </c>
       <c r="AP65">
-        <v>0.4000000000000057</v>
+        <v>0.1600000000000094</v>
       </c>
       <c r="AQ65">
-        <v>0.4000000000000057</v>
+        <v>0.3700000000000074</v>
       </c>
       <c r="AR65">
         <v>0</v>
@@ -9060,64 +8397,43 @@
       <c r="AZ65">
         <v>0</v>
       </c>
-      <c r="BA65">
-        <v>0</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>0.4559990801160652</v>
-      </c>
-      <c r="AD66">
-        <v>0.4919990801160637</v>
-      </c>
-      <c r="AE66">
-        <v>0.5239990801160644</v>
-      </c>
-      <c r="AF66">
-        <v>0.5719990801160689</v>
-      </c>
-      <c r="AG66">
-        <v>0.4149999999000045</v>
-      </c>
-      <c r="AH66">
-        <v>0.2949999999000042</v>
-      </c>
       <c r="AI66">
-        <v>0.3749999998999997</v>
+        <v>0.593488369689781</v>
       </c>
       <c r="AJ66">
-        <v>0.3249999999000011</v>
+        <v>0.4469990800160727</v>
       </c>
       <c r="AK66">
-        <v>0.09999999999999432</v>
+        <v>0.4269990800160713</v>
       </c>
       <c r="AL66">
-        <v>0.1999999999999744</v>
+        <v>0.3869999999000058</v>
       </c>
       <c r="AM66">
+        <v>0.3849999999000062</v>
+      </c>
+      <c r="AN66">
+        <v>0.3949999999000084</v>
+      </c>
+      <c r="AO66">
+        <v>0.2449999999000099</v>
+      </c>
+      <c r="AP66">
+        <v>0.1600000000000094</v>
+      </c>
+      <c r="AQ66">
+        <v>0.3700000000000074</v>
+      </c>
+      <c r="AR66">
+        <v>0.3000000000000057</v>
+      </c>
+      <c r="AS66">
         <v>0.2000000000000028</v>
-      </c>
-      <c r="AN66">
-        <v>0.2999999999999829</v>
-      </c>
-      <c r="AO66">
-        <v>0.2999999999999829</v>
-      </c>
-      <c r="AP66">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="AQ66">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="AR66">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="AS66">
-        <v>0.2999999999999829</v>
       </c>
       <c r="AT66">
         <v>0.2000000000000028</v>
@@ -9140,67 +8456,43 @@
       <c r="AZ66">
         <v>0.2000000000000028</v>
       </c>
-      <c r="BA66">
-        <v>0.2000000000000028</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>0.4559990801160652</v>
-      </c>
-      <c r="AD67">
-        <v>0.4919990801160637</v>
-      </c>
-      <c r="AE67">
-        <v>0.5239990801160644</v>
-      </c>
-      <c r="AF67">
-        <v>0.5719990801160689</v>
-      </c>
-      <c r="AG67">
-        <v>0.4149999999000045</v>
-      </c>
-      <c r="AH67">
-        <v>0.2949999999000042</v>
-      </c>
-      <c r="AI67">
-        <v>0.3749999998999997</v>
-      </c>
       <c r="AJ67">
-        <v>0.3249999999000011</v>
+        <v>0.4469990800160727</v>
       </c>
       <c r="AK67">
-        <v>-0.08000000000000398</v>
+        <v>0.4269990800160713</v>
       </c>
       <c r="AL67">
-        <v>-0.03500000000000369</v>
+        <v>0.3869999999000058</v>
       </c>
       <c r="AM67">
-        <v>0.02000000000000026</v>
+        <v>0.3849999999000062</v>
       </c>
       <c r="AN67">
-        <v>0.1749999999999986</v>
+        <v>0.3949999999000084</v>
       </c>
       <c r="AO67">
-        <v>0.2999999999999687</v>
+        <v>0.2449999999000099</v>
       </c>
       <c r="AP67">
-        <v>0.2999999999999829</v>
+        <v>0.1600000000000094</v>
       </c>
       <c r="AQ67">
-        <v>0.2999999999999829</v>
+        <v>0.3700000000000074</v>
       </c>
       <c r="AR67">
-        <v>0.4000000000000057</v>
+        <v>0.3000000000000057</v>
       </c>
       <c r="AS67">
-        <v>0.4999999999999858</v>
+        <v>0.2400000000000063</v>
       </c>
       <c r="AT67">
-        <v>0.2000000000000028</v>
+        <v>-0.09999999999999432</v>
       </c>
       <c r="AU67">
         <v>-0.09999999999999432</v>
@@ -9220,70 +8512,43 @@
       <c r="AZ67">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="BA67">
-        <v>-0.09999999999999432</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>0.4559990801160652</v>
-      </c>
-      <c r="AD68">
-        <v>0.4919990801160637</v>
-      </c>
-      <c r="AE68">
-        <v>0.5239990801160644</v>
-      </c>
-      <c r="AF68">
-        <v>0.5719990801160689</v>
-      </c>
-      <c r="AG68">
-        <v>0.4149999999000045</v>
-      </c>
-      <c r="AH68">
-        <v>0.2949999999000042</v>
-      </c>
-      <c r="AI68">
-        <v>0.3749999998999997</v>
-      </c>
-      <c r="AJ68">
-        <v>0.3249999999000011</v>
-      </c>
       <c r="AK68">
-        <v>-0.08000000000000398</v>
+        <v>0.4269990800160713</v>
       </c>
       <c r="AL68">
-        <v>-0.03500000000000369</v>
+        <v>0.3869999999000058</v>
       </c>
       <c r="AM68">
-        <v>0.02000000000000026</v>
+        <v>0.3849999999000062</v>
       </c>
       <c r="AN68">
-        <v>0.1749999999999986</v>
+        <v>0.3949999999000084</v>
       </c>
       <c r="AO68">
-        <v>0.3000000000000114</v>
+        <v>0.2449999999000099</v>
       </c>
       <c r="AP68">
-        <v>0.4999999999999858</v>
+        <v>0.1600000000000094</v>
       </c>
       <c r="AQ68">
-        <v>0.2999999999999829</v>
+        <v>0.3700000000000074</v>
       </c>
       <c r="AR68">
+        <v>0.3000000000000057</v>
+      </c>
+      <c r="AS68">
+        <v>0.2400000000000063</v>
+      </c>
+      <c r="AT68">
+        <v>0.3100000000000065</v>
+      </c>
+      <c r="AU68">
         <v>0.2000000000000028</v>
-      </c>
-      <c r="AS68">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="AT68">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="AU68">
-        <v>-0.0999999999999801</v>
       </c>
       <c r="AV68">
         <v>0.2000000000000028</v>
@@ -9300,61 +8565,43 @@
       <c r="AZ68">
         <v>0.2000000000000028</v>
       </c>
-      <c r="BA68">
-        <v>0.2000000000000028</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>0.4149999999000045</v>
-      </c>
-      <c r="AH69">
-        <v>0.2949999999000042</v>
-      </c>
-      <c r="AI69">
-        <v>0.3749999998999997</v>
-      </c>
-      <c r="AJ69">
-        <v>0.3249999999000011</v>
-      </c>
-      <c r="AK69">
-        <v>-0.08000000000000398</v>
-      </c>
       <c r="AL69">
-        <v>-0.03500000000000369</v>
+        <v>0.3869999999000058</v>
       </c>
       <c r="AM69">
-        <v>0.02000000000000026</v>
+        <v>0.3849999999000062</v>
       </c>
       <c r="AN69">
-        <v>0.1749999999999986</v>
+        <v>0.3949999999000084</v>
       </c>
       <c r="AO69">
-        <v>0.2999999999999829</v>
+        <v>0.2449999999000099</v>
       </c>
       <c r="AP69">
+        <v>0.1600000000000094</v>
+      </c>
+      <c r="AQ69">
+        <v>0.3700000000000074</v>
+      </c>
+      <c r="AR69">
+        <v>0.3000000000000057</v>
+      </c>
+      <c r="AS69">
+        <v>0.2400000000000063</v>
+      </c>
+      <c r="AT69">
+        <v>0.3100000000000065</v>
+      </c>
+      <c r="AU69">
+        <v>0.2800000000000082</v>
+      </c>
+      <c r="AV69">
         <v>0.09999999999999432</v>
-      </c>
-      <c r="AQ69">
-        <v>0.2999999999999829</v>
-      </c>
-      <c r="AR69">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="AS69">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="AT69">
-        <v>0.2999999999999829</v>
-      </c>
-      <c r="AU69">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="AV69">
-        <v>0.2000000000000028</v>
       </c>
       <c r="AW69">
         <v>0.09999999999999432</v>
@@ -9368,61 +8615,40 @@
       <c r="AZ69">
         <v>0.09999999999999432</v>
       </c>
-      <c r="BA69">
-        <v>0.09999999999999432</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>0.4149999999000045</v>
-      </c>
-      <c r="AH70">
-        <v>0.2949999999000042</v>
-      </c>
-      <c r="AI70">
-        <v>0.3749999998999997</v>
-      </c>
-      <c r="AJ70">
-        <v>0.3249999999000011</v>
-      </c>
-      <c r="AK70">
-        <v>-0.08000000000000398</v>
-      </c>
-      <c r="AL70">
-        <v>-0.03500000000000369</v>
-      </c>
       <c r="AM70">
-        <v>0.02000000000000026</v>
+        <v>0.3849999999000062</v>
       </c>
       <c r="AN70">
-        <v>0.1749999999999986</v>
+        <v>0.3949999999000084</v>
       </c>
       <c r="AO70">
-        <v>0.2999999999999829</v>
+        <v>0.2449999999000099</v>
       </c>
       <c r="AP70">
-        <v>0.09999999999996589</v>
+        <v>0.1600000000000094</v>
       </c>
       <c r="AQ70">
-        <v>0.2999999999999829</v>
+        <v>0.3700000000000074</v>
       </c>
       <c r="AR70">
-        <v>0.2000000000000028</v>
+        <v>0.3000000000000057</v>
       </c>
       <c r="AS70">
-        <v>0.2000000000000028</v>
+        <v>0.2400000000000063</v>
       </c>
       <c r="AT70">
-        <v>0.2999999999999829</v>
+        <v>0.3100000000000065</v>
       </c>
       <c r="AU70">
-        <v>0.2000000000000028</v>
+        <v>0.2800000000000082</v>
       </c>
       <c r="AV70">
-        <v>0.2999999999999829</v>
+        <v>0.2900000000000048</v>
       </c>
       <c r="AW70">
         <v>0.09999999999999432</v>
@@ -9436,67 +8662,43 @@
       <c r="AZ70">
         <v>0.09999999999999432</v>
       </c>
-      <c r="BA70">
-        <v>0.09999999999999432</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>0.4149999999000045</v>
-      </c>
-      <c r="AH71">
-        <v>0.2949999999000042</v>
-      </c>
-      <c r="AI71">
-        <v>0.3749999998999997</v>
-      </c>
-      <c r="AJ71">
-        <v>0.3249999999000011</v>
-      </c>
-      <c r="AK71">
-        <v>-0.08000000000000398</v>
-      </c>
-      <c r="AL71">
-        <v>-0.03500000000000369</v>
-      </c>
-      <c r="AM71">
-        <v>0.02000000000000026</v>
-      </c>
       <c r="AN71">
-        <v>0.1749999999999986</v>
+        <v>0.3949999999000084</v>
       </c>
       <c r="AO71">
-        <v>0.3299999999999926</v>
+        <v>0.2449999999000099</v>
       </c>
       <c r="AP71">
-        <v>0.219999999999996</v>
+        <v>0.1600000000000094</v>
       </c>
       <c r="AQ71">
-        <v>0.1299999999999969</v>
+        <v>0.3700000000000074</v>
       </c>
       <c r="AR71">
-        <v>0.3600000000000037</v>
+        <v>0.3000000000000057</v>
       </c>
       <c r="AS71">
-        <v>0.2999999999999829</v>
+        <v>0.2400000000000063</v>
       </c>
       <c r="AT71">
-        <v>0.4000000000000057</v>
+        <v>0.3100000000000065</v>
       </c>
       <c r="AU71">
-        <v>0.4000000000000057</v>
+        <v>0.2800000000000082</v>
       </c>
       <c r="AV71">
-        <v>0.3599999999999994</v>
+        <v>0.2900000000000048</v>
       </c>
       <c r="AW71">
-        <v>0.2000000000000028</v>
+        <v>0.2500000000000028</v>
       </c>
       <c r="AX71">
-        <v>0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="AY71">
         <v>0</v>
@@ -9504,716 +8706,299 @@
       <c r="AZ71">
         <v>0</v>
       </c>
-      <c r="BA71">
-        <v>0</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>0.4149999999000045</v>
-      </c>
-      <c r="AH72">
-        <v>0.2949999999000042</v>
-      </c>
-      <c r="AI72">
-        <v>0.3749999998999997</v>
-      </c>
-      <c r="AJ72">
-        <v>0.3249999999000011</v>
-      </c>
-      <c r="AK72">
-        <v>-0.08000000000000398</v>
-      </c>
-      <c r="AL72">
-        <v>-0.03500000000000369</v>
-      </c>
-      <c r="AM72">
-        <v>0.02000000000000026</v>
-      </c>
-      <c r="AN72">
-        <v>0.1749999999999986</v>
-      </c>
       <c r="AO72">
-        <v>0.3299999999999926</v>
+        <v>0.2449999999000099</v>
       </c>
       <c r="AP72">
-        <v>0.219999999999996</v>
+        <v>0.1600000000000094</v>
       </c>
       <c r="AQ72">
-        <v>0.1299999999999969</v>
+        <v>0.3700000000000074</v>
       </c>
       <c r="AR72">
-        <v>0.3600000000000037</v>
+        <v>0.3000000000000057</v>
       </c>
       <c r="AS72">
-        <v>0.2000000000000028</v>
+        <v>0.2400000000000063</v>
       </c>
       <c r="AT72">
-        <v>0.4000000000000057</v>
+        <v>0.3100000000000065</v>
       </c>
       <c r="AU72">
-        <v>0.4000000000000057</v>
+        <v>0.2800000000000082</v>
       </c>
       <c r="AV72">
-        <v>0.3599999999999994</v>
+        <v>0.2900000000000048</v>
       </c>
       <c r="AW72">
-        <v>0.2999999999999829</v>
+        <v>0.2500000000000028</v>
       </c>
       <c r="AX72">
-        <v>0.2000000000000028</v>
+        <v>0.1800000000000011</v>
       </c>
       <c r="AY72">
-        <v>0</v>
+        <v>0.4999999999999858</v>
       </c>
       <c r="AZ72">
         <v>0.4999999999999858</v>
       </c>
-      <c r="BA72">
-        <v>0.4999999999999858</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>-0.08000000000000398</v>
-      </c>
-      <c r="AL73">
-        <v>-0.03500000000000369</v>
-      </c>
-      <c r="AM73">
-        <v>0.02000000000000026</v>
-      </c>
-      <c r="AN73">
-        <v>0.1749999999999986</v>
-      </c>
-      <c r="AO73">
-        <v>0.3299999999999926</v>
-      </c>
       <c r="AP73">
-        <v>0.219999999999996</v>
+        <v>0.1600000000000094</v>
       </c>
       <c r="AQ73">
-        <v>0.1299999999999969</v>
+        <v>0.3700000000000074</v>
       </c>
       <c r="AR73">
-        <v>0.3600000000000037</v>
+        <v>0.3000000000000057</v>
       </c>
       <c r="AS73">
-        <v>0.2000000000000028</v>
+        <v>0.2400000000000063</v>
       </c>
       <c r="AT73">
-        <v>0.4000000000000057</v>
+        <v>0.3100000000000065</v>
       </c>
       <c r="AU73">
-        <v>0.4000000000000057</v>
+        <v>0.2800000000000082</v>
       </c>
       <c r="AV73">
-        <v>0.3599999999999994</v>
+        <v>0.2900000000000048</v>
       </c>
       <c r="AW73">
-        <v>0.2999999999999829</v>
+        <v>0.2500000000000028</v>
       </c>
       <c r="AX73">
-        <v>0.2999999999999829</v>
+        <v>0.1800000000000011</v>
       </c>
       <c r="AY73">
-        <v>0.09999999999999432</v>
+        <v>0.3299999999999983</v>
       </c>
       <c r="AZ73">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="BA73">
         <v>0.4000000000000199</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>-0.08000000000000398</v>
-      </c>
-      <c r="AL74">
-        <v>-0.03500000000000369</v>
-      </c>
-      <c r="AM74">
-        <v>0.02000000000000026</v>
-      </c>
-      <c r="AN74">
-        <v>0.1749999999999986</v>
-      </c>
-      <c r="AO74">
-        <v>0.3299999999999926</v>
-      </c>
-      <c r="AP74">
-        <v>0.219999999999996</v>
-      </c>
       <c r="AQ74">
-        <v>0.1299999999999969</v>
+        <v>0.3700000000000074</v>
       </c>
       <c r="AR74">
-        <v>0.3600000000000037</v>
+        <v>0.3000000000000057</v>
       </c>
       <c r="AS74">
-        <v>0.2000000000000171</v>
+        <v>0.2400000000000063</v>
       </c>
       <c r="AT74">
-        <v>0.4000000000000199</v>
+        <v>0.3100000000000065</v>
       </c>
       <c r="AU74">
-        <v>0.4000000000000057</v>
+        <v>0.2800000000000082</v>
       </c>
       <c r="AV74">
-        <v>0.3599999999999994</v>
+        <v>0.2900000000000048</v>
       </c>
       <c r="AW74">
-        <v>0.2999999999999829</v>
+        <v>0.2500000000000028</v>
       </c>
       <c r="AX74">
-        <v>0.2999999999999829</v>
+        <v>0.1800000000000011</v>
       </c>
       <c r="AY74">
-        <v>0.2000000000000028</v>
+        <v>0.3299999999999983</v>
       </c>
       <c r="AZ74">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="BA74">
-        <v>0.4000000000000057</v>
+        <v>0.4200000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>-0.08000000000000398</v>
-      </c>
-      <c r="AL75">
-        <v>-0.03500000000000369</v>
-      </c>
-      <c r="AM75">
-        <v>0.02000000000000026</v>
-      </c>
-      <c r="AN75">
-        <v>0.1749999999999986</v>
-      </c>
-      <c r="AO75">
-        <v>0.3299999999999926</v>
-      </c>
-      <c r="AP75">
-        <v>0.219999999999996</v>
-      </c>
-      <c r="AQ75">
-        <v>0.1299999999999969</v>
-      </c>
       <c r="AR75">
-        <v>0.3600000000000037</v>
+        <v>0.3000000000000057</v>
       </c>
       <c r="AS75">
-        <v>0.2299999999999983</v>
+        <v>0.2400000000000063</v>
       </c>
       <c r="AT75">
-        <v>0.2800000000000011</v>
+        <v>0.3100000000000065</v>
       </c>
       <c r="AU75">
-        <v>0.1900000000000048</v>
+        <v>0.2800000000000082</v>
       </c>
       <c r="AV75">
-        <v>0.2239999999999994</v>
+        <v>0.2900000000000048</v>
       </c>
       <c r="AW75">
-        <v>0.2999999999999829</v>
+        <v>0.2500000000000028</v>
       </c>
       <c r="AX75">
-        <v>0.2999999999999829</v>
+        <v>0.1800000000000011</v>
       </c>
       <c r="AY75">
-        <v>0.2000000000000028</v>
+        <v>0.3299999999999983</v>
       </c>
       <c r="AZ75">
-        <v>0.2999999999999829</v>
-      </c>
-      <c r="BA75">
-        <v>0.4000000000000057</v>
+        <v>0.4200000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>-0.08000000000000398</v>
-      </c>
-      <c r="AL76">
-        <v>-0.03500000000000369</v>
-      </c>
-      <c r="AM76">
-        <v>0.02000000000000026</v>
-      </c>
-      <c r="AN76">
-        <v>0.1749999999999986</v>
-      </c>
-      <c r="AO76">
-        <v>0.3299999999999926</v>
-      </c>
-      <c r="AP76">
-        <v>0.219999999999996</v>
-      </c>
-      <c r="AQ76">
-        <v>0.1299999999999969</v>
-      </c>
-      <c r="AR76">
-        <v>0.3600000000000037</v>
-      </c>
       <c r="AS76">
-        <v>0.2299999999999983</v>
+        <v>0.2400000000000063</v>
       </c>
       <c r="AT76">
-        <v>0.2800000000000011</v>
+        <v>0.3100000000000065</v>
       </c>
       <c r="AU76">
-        <v>0.1900000000000048</v>
+        <v>0.2800000000000082</v>
       </c>
       <c r="AV76">
-        <v>0.2239999999999994</v>
+        <v>0.2900000000000048</v>
       </c>
       <c r="AW76">
-        <v>0.2999999999999687</v>
+        <v>0.2500000000000028</v>
       </c>
       <c r="AX76">
-        <v>0.1999999999999744</v>
+        <v>0.1800000000000011</v>
       </c>
       <c r="AY76">
-        <v>0.2000000000000028</v>
+        <v>0.3299999999999983</v>
       </c>
       <c r="AZ76">
-        <v>0.7000000000000171</v>
-      </c>
-      <c r="BA76">
-        <v>0.6000000000000227</v>
+        <v>0.4200000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>0.3299999999999926</v>
-      </c>
-      <c r="AP77">
-        <v>0.219999999999996</v>
-      </c>
-      <c r="AQ77">
-        <v>0.1299999999999969</v>
-      </c>
-      <c r="AR77">
-        <v>0.3600000000000037</v>
-      </c>
-      <c r="AS77">
-        <v>0.2299999999999983</v>
-      </c>
       <c r="AT77">
-        <v>0.2800000000000011</v>
+        <v>0.3100000000000065</v>
       </c>
       <c r="AU77">
-        <v>0.1900000000000048</v>
+        <v>0.2800000000000082</v>
       </c>
       <c r="AV77">
-        <v>0.2239999999999994</v>
+        <v>0.2900000000000048</v>
       </c>
       <c r="AW77">
-        <v>0.2999999999999829</v>
+        <v>0.2500000000000028</v>
       </c>
       <c r="AX77">
-        <v>0.2000000000000028</v>
+        <v>0.1800000000000011</v>
       </c>
       <c r="AY77">
-        <v>0.2000000000000028</v>
+        <v>0.3299999999999983</v>
       </c>
       <c r="AZ77">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="BA77">
-        <v>0.5999999999999943</v>
+        <v>0.4200000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>0.3299999999999926</v>
-      </c>
-      <c r="AP78">
-        <v>0.219999999999996</v>
-      </c>
-      <c r="AQ78">
-        <v>0.1299999999999969</v>
-      </c>
-      <c r="AR78">
-        <v>0.3600000000000037</v>
-      </c>
-      <c r="AS78">
-        <v>0.2299999999999983</v>
-      </c>
-      <c r="AT78">
-        <v>0.2800000000000011</v>
-      </c>
       <c r="AU78">
-        <v>0.1900000000000048</v>
+        <v>0.2800000000000082</v>
       </c>
       <c r="AV78">
-        <v>0.2239999999999994</v>
+        <v>0.2900000000000048</v>
       </c>
       <c r="AW78">
-        <v>0.2999999999999829</v>
+        <v>0.2500000000000028</v>
       </c>
       <c r="AX78">
-        <v>0.2000000000000028</v>
+        <v>0.1800000000000011</v>
       </c>
       <c r="AY78">
-        <v>0.2000000000000028</v>
+        <v>0.3299999999999983</v>
       </c>
       <c r="AZ78">
-        <v>0.4999999999999858</v>
-      </c>
-      <c r="BA78">
-        <v>0.4999999999999858</v>
+        <v>0.4200000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>0.3299999999999926</v>
-      </c>
-      <c r="AP79">
-        <v>0.219999999999996</v>
-      </c>
-      <c r="AQ79">
-        <v>0.1299999999999969</v>
-      </c>
-      <c r="AR79">
-        <v>0.3600000000000037</v>
-      </c>
-      <c r="AS79">
-        <v>0.2299999999999983</v>
-      </c>
-      <c r="AT79">
-        <v>0.2800000000000011</v>
-      </c>
-      <c r="AU79">
-        <v>0.1900000000000048</v>
-      </c>
       <c r="AV79">
-        <v>0.2239999999999994</v>
+        <v>0.2900000000000048</v>
       </c>
       <c r="AW79">
-        <v>0.2499999999999857</v>
+        <v>0.2500000000000028</v>
       </c>
       <c r="AX79">
-        <v>0.1999999999999915</v>
+        <v>0.1800000000000011</v>
       </c>
       <c r="AY79">
-        <v>0.1299999999999997</v>
+        <v>0.3299999999999983</v>
       </c>
       <c r="AZ79">
-        <v>0.3599999999999966</v>
-      </c>
-      <c r="BA79">
-        <v>0.4000000000000057</v>
+        <v>0.4200000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>0.3299999999999926</v>
-      </c>
-      <c r="AP80">
-        <v>0.219999999999996</v>
-      </c>
-      <c r="AQ80">
-        <v>0.1299999999999969</v>
-      </c>
-      <c r="AR80">
-        <v>0.3600000000000037</v>
-      </c>
-      <c r="AS80">
-        <v>0.2299999999999983</v>
-      </c>
-      <c r="AT80">
-        <v>0.2800000000000011</v>
-      </c>
-      <c r="AU80">
-        <v>0.1900000000000048</v>
-      </c>
-      <c r="AV80">
-        <v>0.2239999999999994</v>
-      </c>
       <c r="AW80">
-        <v>0.2499999999999857</v>
+        <v>0.2500000000000028</v>
       </c>
       <c r="AX80">
-        <v>0.1999999999999915</v>
+        <v>0.1800000000000011</v>
       </c>
       <c r="AY80">
-        <v>0.1299999999999997</v>
+        <v>0.3299999999999983</v>
       </c>
       <c r="AZ80">
-        <v>0.3599999999999966</v>
-      </c>
-      <c r="BA80">
-        <v>0.4000000000000057</v>
+        <v>0.4200000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>0.2299999999999983</v>
-      </c>
-      <c r="AT81">
-        <v>0.2800000000000011</v>
-      </c>
-      <c r="AU81">
-        <v>0.1900000000000048</v>
-      </c>
-      <c r="AV81">
-        <v>0.2239999999999994</v>
-      </c>
-      <c r="AW81">
-        <v>0.2499999999999857</v>
-      </c>
       <c r="AX81">
-        <v>0.1999999999999915</v>
+        <v>0.1800000000000011</v>
       </c>
       <c r="AY81">
-        <v>0.1299999999999997</v>
+        <v>0.3299999999999983</v>
       </c>
       <c r="AZ81">
-        <v>0.3599999999999966</v>
-      </c>
-      <c r="BA81">
-        <v>0.4000000000000057</v>
+        <v>0.4200000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>0.2299999999999983</v>
-      </c>
-      <c r="AT82">
-        <v>0.2800000000000011</v>
-      </c>
-      <c r="AU82">
-        <v>0.1900000000000048</v>
-      </c>
-      <c r="AV82">
-        <v>0.2239999999999994</v>
-      </c>
-      <c r="AW82">
-        <v>0.2499999999999857</v>
-      </c>
-      <c r="AX82">
-        <v>0.1999999999999915</v>
-      </c>
       <c r="AY82">
-        <v>0.1299999999999997</v>
+        <v>0.3299999999999983</v>
       </c>
       <c r="AZ82">
-        <v>0.3599999999999966</v>
-      </c>
-      <c r="BA82">
-        <v>0.4000000000000057</v>
+        <v>0.4200000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>0.2299999999999983</v>
-      </c>
-      <c r="AT83">
-        <v>0.2800000000000011</v>
-      </c>
-      <c r="AU83">
-        <v>0.1900000000000048</v>
-      </c>
-      <c r="AV83">
-        <v>0.2239999999999994</v>
-      </c>
-      <c r="AW83">
-        <v>0.2499999999999857</v>
-      </c>
-      <c r="AX83">
-        <v>0.1999999999999915</v>
-      </c>
-      <c r="AY83">
-        <v>0.1299999999999997</v>
-      </c>
       <c r="AZ83">
-        <v>0.3599999999999966</v>
-      </c>
-      <c r="BA83">
-        <v>0.4500000000000057</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>0.2299999999999983</v>
-      </c>
-      <c r="AT84">
-        <v>0.2800000000000011</v>
-      </c>
-      <c r="AU84">
-        <v>0.1900000000000048</v>
-      </c>
-      <c r="AV84">
-        <v>0.2239999999999994</v>
-      </c>
-      <c r="AW84">
-        <v>0.2499999999999857</v>
-      </c>
-      <c r="AX84">
-        <v>0.1999999999999915</v>
-      </c>
-      <c r="AY84">
-        <v>0.1299999999999997</v>
-      </c>
-      <c r="AZ84">
-        <v>0.3599999999999966</v>
-      </c>
-      <c r="BA84">
-        <v>0.4500000000000057</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>0.2499999999999857</v>
-      </c>
-      <c r="AX85">
-        <v>0.1999999999999915</v>
-      </c>
-      <c r="AY85">
-        <v>0.1299999999999997</v>
-      </c>
-      <c r="AZ85">
-        <v>0.3599999999999966</v>
-      </c>
-      <c r="BA85">
-        <v>0.4500000000000057</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>0.2499999999999857</v>
-      </c>
-      <c r="AX86">
-        <v>0.1999999999999915</v>
-      </c>
-      <c r="AY86">
-        <v>0.1299999999999997</v>
-      </c>
-      <c r="AZ86">
-        <v>0.3599999999999966</v>
-      </c>
-      <c r="BA86">
-        <v>0.4500000000000057</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>0.2499999999999857</v>
-      </c>
-      <c r="AX87">
-        <v>0.1999999999999915</v>
-      </c>
-      <c r="AY87">
-        <v>0.1299999999999997</v>
-      </c>
-      <c r="AZ87">
-        <v>0.3599999999999966</v>
-      </c>
-      <c r="BA87">
-        <v>0.4500000000000057</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>0.2499999999999857</v>
-      </c>
-      <c r="AX88">
-        <v>0.1999999999999915</v>
-      </c>
-      <c r="AY88">
-        <v>0.1299999999999997</v>
-      </c>
-      <c r="AZ88">
-        <v>0.3599999999999966</v>
-      </c>
-      <c r="BA88">
-        <v>0.4500000000000057</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>0.4500000000000057</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>0.4500000000000057</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>0.4500000000000057</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>0.4500000000000057</v>
+        <v>0.4200000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PUBCON_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PUBCON_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9224,7 +9224,7 @@
         <v>0.4824459961807949</v>
       </c>
       <c r="AG64">
-        <v>0.3499999990000049</v>
+        <v>0.6266340087882488</v>
       </c>
       <c r="AH64">
         <v>0.760290197271857</v>
@@ -9316,10 +9316,10 @@
         <v>0.4824459961807949</v>
       </c>
       <c r="AG65">
-        <v>0.6616352647673585</v>
+        <v>0.6266340087882488</v>
       </c>
       <c r="AH65">
-        <v>0.7000000000000171</v>
+        <v>0.8007907025149924</v>
       </c>
       <c r="AI65">
         <v>-0.5062757877985717</v>
@@ -9405,13 +9405,13 @@
         <v>0.4824459961807949</v>
       </c>
       <c r="AG66">
-        <v>0.6616352647673585</v>
+        <v>0.6266340087882488</v>
       </c>
       <c r="AH66">
-        <v>0.8112330760475948</v>
+        <v>0.8007907025149924</v>
       </c>
       <c r="AI66">
-        <v>0.7000000000000171</v>
+        <v>0.625768062626985</v>
       </c>
       <c r="AJ66">
         <v>0.1999914549530217</v>
@@ -9491,16 +9491,16 @@
         <v>0.4824459961807949</v>
       </c>
       <c r="AG67">
-        <v>0.6616352647673585</v>
+        <v>0.6266340087882488</v>
       </c>
       <c r="AH67">
-        <v>0.8112330760475948</v>
+        <v>0.8007907025149924</v>
       </c>
       <c r="AI67">
-        <v>0.6837423852898586</v>
+        <v>0.625768062626985</v>
       </c>
       <c r="AJ67">
-        <v>0.7999999999999972</v>
+        <v>0.720452039217327</v>
       </c>
       <c r="AK67">
         <v>1.809651846369789</v>
@@ -9574,19 +9574,19 @@
         <v>0.4824459961807949</v>
       </c>
       <c r="AG68">
-        <v>0.6616352647673585</v>
+        <v>0.6266340087882488</v>
       </c>
       <c r="AH68">
-        <v>0.8112330760475948</v>
+        <v>0.8007907025149924</v>
       </c>
       <c r="AI68">
-        <v>0.6837423852898586</v>
+        <v>0.625768062626985</v>
       </c>
       <c r="AJ68">
-        <v>0.7625700744310271</v>
+        <v>0.720452039217327</v>
       </c>
       <c r="AK68">
-        <v>-0.7999999999999972</v>
+        <v>0.7726997928238666</v>
       </c>
       <c r="AL68">
         <v>-2.218509177329452</v>
@@ -9654,22 +9654,22 @@
         <v>0.4824459961807949</v>
       </c>
       <c r="AG69">
-        <v>0.6616352647673585</v>
+        <v>0.6266340087882488</v>
       </c>
       <c r="AH69">
-        <v>0.8112330760475948</v>
+        <v>0.8007907025149924</v>
       </c>
       <c r="AI69">
-        <v>0.6837423852898586</v>
+        <v>0.625768062626985</v>
       </c>
       <c r="AJ69">
-        <v>0.7625700744310271</v>
+        <v>0.720452039217327</v>
       </c>
       <c r="AK69">
-        <v>0.5826997928238669</v>
+        <v>0.7726997928238666</v>
       </c>
       <c r="AL69">
-        <v>0.4999999999999858</v>
+        <v>0.6947502057049988</v>
       </c>
       <c r="AM69">
         <v>0.9580856546984649</v>
@@ -9731,25 +9731,25 @@
         <v>0.4824459961807949</v>
       </c>
       <c r="AG70">
-        <v>0.6616352647673585</v>
+        <v>0.6266340087882488</v>
       </c>
       <c r="AH70">
-        <v>0.8112330760475948</v>
+        <v>0.8007907025149924</v>
       </c>
       <c r="AI70">
-        <v>0.6837423852898586</v>
+        <v>0.625768062626985</v>
       </c>
       <c r="AJ70">
-        <v>0.7625700744310271</v>
+        <v>0.720452039217327</v>
       </c>
       <c r="AK70">
-        <v>0.5826997928238669</v>
+        <v>0.7726997928238666</v>
       </c>
       <c r="AL70">
-        <v>0.6947502057049973</v>
+        <v>0.6947502057049988</v>
       </c>
       <c r="AM70">
-        <v>2.842170943040401E-14</v>
+        <v>0.715353553102689</v>
       </c>
       <c r="AN70">
         <v>0.06845131779844849</v>
@@ -9805,28 +9805,28 @@
         <v>0.4824459961807949</v>
       </c>
       <c r="AG71">
-        <v>0.6616352647673585</v>
+        <v>0.6266340087882488</v>
       </c>
       <c r="AH71">
-        <v>0.8112330760475948</v>
+        <v>0.8007907025149924</v>
       </c>
       <c r="AI71">
-        <v>0.6837423852898586</v>
+        <v>0.625768062626985</v>
       </c>
       <c r="AJ71">
-        <v>0.7625700744310271</v>
+        <v>0.720452039217327</v>
       </c>
       <c r="AK71">
-        <v>0.5826997928238669</v>
+        <v>0.7726997928238666</v>
       </c>
       <c r="AL71">
-        <v>0.6947502057049973</v>
+        <v>0.6947502057049988</v>
       </c>
       <c r="AM71">
-        <v>0.575353553102692</v>
+        <v>0.715353553102689</v>
       </c>
       <c r="AN71">
-        <v>0.5000000000000142</v>
+        <v>0.4910740838838996</v>
       </c>
       <c r="AO71">
         <v>2.344079640195559</v>
@@ -9876,31 +9876,31 @@
         <v>0.4824459961807949</v>
       </c>
       <c r="AG72">
-        <v>0.6616352647673585</v>
+        <v>0.6266340087882488</v>
       </c>
       <c r="AH72">
-        <v>0.8112330760475948</v>
+        <v>0.8007907025149924</v>
       </c>
       <c r="AI72">
-        <v>0.6837423852898586</v>
+        <v>0.625768062626985</v>
       </c>
       <c r="AJ72">
-        <v>0.7625700744310271</v>
+        <v>0.720452039217327</v>
       </c>
       <c r="AK72">
-        <v>0.5826997928238669</v>
+        <v>0.7726997928238666</v>
       </c>
       <c r="AL72">
-        <v>0.6947502057049973</v>
+        <v>0.6947502057049988</v>
       </c>
       <c r="AM72">
-        <v>0.575353553102692</v>
+        <v>0.715353553102689</v>
       </c>
       <c r="AN72">
-        <v>0.531074083883901</v>
+        <v>0.4910740838838996</v>
       </c>
       <c r="AO72">
-        <v>0.7000000000000171</v>
+        <v>0.8890901326890344</v>
       </c>
       <c r="AP72">
         <v>-5.587651344285405E-06</v>
@@ -9944,34 +9944,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>0.6616352647673585</v>
+        <v>0.6266340087882488</v>
       </c>
       <c r="AH73">
-        <v>0.8112330760475948</v>
+        <v>0.8007907025149924</v>
       </c>
       <c r="AI73">
-        <v>0.6837423852898586</v>
+        <v>0.625768062626985</v>
       </c>
       <c r="AJ73">
-        <v>0.7625700744310271</v>
+        <v>0.720452039217327</v>
       </c>
       <c r="AK73">
-        <v>0.5826997928238669</v>
+        <v>0.7726997928238666</v>
       </c>
       <c r="AL73">
-        <v>0.6947502057049973</v>
+        <v>0.6947502057049988</v>
       </c>
       <c r="AM73">
-        <v>0.575353553102692</v>
+        <v>0.715353553102689</v>
       </c>
       <c r="AN73">
-        <v>0.531074083883901</v>
+        <v>0.4910740838838996</v>
       </c>
       <c r="AO73">
-        <v>0.8444949522781571</v>
+        <v>0.8890901326890344</v>
       </c>
       <c r="AP73">
-        <v>-0.9999999999999858</v>
+        <v>0.4729789600497171</v>
       </c>
       <c r="AQ73">
         <v>0.6233623182505568</v>
@@ -10011,38 +10011,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>0.6616352647673585</v>
-      </c>
       <c r="AH74">
-        <v>0.8112330760475948</v>
+        <v>0.8007907025149924</v>
       </c>
       <c r="AI74">
-        <v>0.6837423852898586</v>
+        <v>0.625768062626985</v>
       </c>
       <c r="AJ74">
-        <v>0.7625700744310271</v>
+        <v>0.720452039217327</v>
       </c>
       <c r="AK74">
-        <v>0.5826997928238669</v>
+        <v>0.7726997928238666</v>
       </c>
       <c r="AL74">
-        <v>0.6947502057049973</v>
+        <v>0.6947502057049988</v>
       </c>
       <c r="AM74">
-        <v>0.575353553102692</v>
+        <v>0.715353553102689</v>
       </c>
       <c r="AN74">
-        <v>0.531074083883901</v>
+        <v>0.4910740838838996</v>
       </c>
       <c r="AO74">
-        <v>0.8444949522781571</v>
+        <v>0.8890901326890344</v>
       </c>
       <c r="AP74">
-        <v>0.246543788682611</v>
+        <v>0.4729789600497171</v>
       </c>
       <c r="AQ74">
-        <v>-0.5</v>
+        <v>0.2906683195440081</v>
       </c>
       <c r="AR74">
         <v>-4.887355777631228</v>
@@ -10079,38 +10076,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>0.8112330760475948</v>
-      </c>
       <c r="AI75">
-        <v>0.6837423852898586</v>
+        <v>0.625768062626985</v>
       </c>
       <c r="AJ75">
-        <v>0.7625700744310271</v>
+        <v>0.720452039217327</v>
       </c>
       <c r="AK75">
-        <v>0.5826997928238669</v>
+        <v>0.7726997928238666</v>
       </c>
       <c r="AL75">
-        <v>0.6947502057049973</v>
+        <v>0.6947502057049988</v>
       </c>
       <c r="AM75">
-        <v>0.575353553102692</v>
+        <v>0.715353553102689</v>
       </c>
       <c r="AN75">
-        <v>0.531074083883901</v>
+        <v>0.4910740838838996</v>
       </c>
       <c r="AO75">
-        <v>0.8444949522781571</v>
+        <v>0.8890901326890344</v>
       </c>
       <c r="AP75">
-        <v>0.246543788682611</v>
+        <v>0.4729789600497171</v>
       </c>
       <c r="AQ75">
-        <v>0.1421894020814378</v>
+        <v>0.2906683195440081</v>
       </c>
       <c r="AR75">
-        <v>2.799999999999997</v>
+        <v>-0.3268873195639145</v>
       </c>
       <c r="AS75">
         <v>0.07746478018819403</v>
@@ -10144,38 +10138,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>0.6837423852898586</v>
-      </c>
       <c r="AJ76">
-        <v>0.7625700744310271</v>
+        <v>0.720452039217327</v>
       </c>
       <c r="AK76">
-        <v>0.5826997928238669</v>
+        <v>0.7726997928238666</v>
       </c>
       <c r="AL76">
-        <v>0.6947502057049973</v>
+        <v>0.6947502057049988</v>
       </c>
       <c r="AM76">
-        <v>0.575353553102692</v>
+        <v>0.715353553102689</v>
       </c>
       <c r="AN76">
-        <v>0.531074083883901</v>
+        <v>0.4910740838838996</v>
       </c>
       <c r="AO76">
-        <v>0.8444949522781571</v>
+        <v>0.8890901326890344</v>
       </c>
       <c r="AP76">
-        <v>0.246543788682611</v>
+        <v>0.4729789600497171</v>
       </c>
       <c r="AQ76">
-        <v>0.1421894020814378</v>
+        <v>0.2906683195440081</v>
       </c>
       <c r="AR76">
-        <v>-0.059948979259083</v>
+        <v>-0.3268873195639145</v>
       </c>
       <c r="AS76">
-        <v>0</v>
+        <v>-0.0367645337730806</v>
       </c>
       <c r="AT76">
         <v>0.2231996868496964</v>
@@ -10206,38 +10197,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>0.7625700744310271</v>
-      </c>
       <c r="AK77">
-        <v>0.5826997928238669</v>
+        <v>0.7726997928238666</v>
       </c>
       <c r="AL77">
-        <v>0.6947502057049973</v>
+        <v>0.6947502057049988</v>
       </c>
       <c r="AM77">
-        <v>0.575353553102692</v>
+        <v>0.715353553102689</v>
       </c>
       <c r="AN77">
-        <v>0.531074083883901</v>
+        <v>0.4910740838838996</v>
       </c>
       <c r="AO77">
-        <v>0.8444949522781571</v>
+        <v>0.8890901326890344</v>
       </c>
       <c r="AP77">
-        <v>0.246543788682611</v>
+        <v>0.4729789600497171</v>
       </c>
       <c r="AQ77">
-        <v>0.1421894020814378</v>
+        <v>0.2906683195440081</v>
       </c>
       <c r="AR77">
-        <v>-0.059948979259083</v>
+        <v>-0.3268873195639145</v>
       </c>
       <c r="AS77">
-        <v>0.0334975157870645</v>
+        <v>-0.0367645337730806</v>
       </c>
       <c r="AT77">
-        <v>0.2000000000000028</v>
+        <v>0.06373566500583086</v>
       </c>
       <c r="AU77">
         <v>0.3473129037311367</v>
@@ -10265,38 +10253,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>0.5826997928238669</v>
-      </c>
       <c r="AL78">
-        <v>0.6947502057049973</v>
+        <v>0.6947502057049988</v>
       </c>
       <c r="AM78">
-        <v>0.575353553102692</v>
+        <v>0.715353553102689</v>
       </c>
       <c r="AN78">
-        <v>0.531074083883901</v>
+        <v>0.4910740838838996</v>
       </c>
       <c r="AO78">
-        <v>0.8444949522781571</v>
+        <v>0.8890901326890344</v>
       </c>
       <c r="AP78">
-        <v>0.246543788682611</v>
+        <v>0.4729789600497171</v>
       </c>
       <c r="AQ78">
-        <v>0.1421894020814378</v>
+        <v>0.2906683195440081</v>
       </c>
       <c r="AR78">
-        <v>-0.059948979259083</v>
+        <v>-0.3268873195639145</v>
       </c>
       <c r="AS78">
-        <v>0.0334975157870645</v>
+        <v>-0.0367645337730806</v>
       </c>
       <c r="AT78">
-        <v>-0.4065540281957183</v>
+        <v>0.06373566500583086</v>
       </c>
       <c r="AU78">
-        <v>-0.09999999999999432</v>
+        <v>-0.2803680510127393</v>
       </c>
       <c r="AV78">
         <v>-0.4268782796002455</v>
@@ -10321,38 +10306,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>0.6947502057049973</v>
-      </c>
       <c r="AM79">
-        <v>0.575353553102692</v>
+        <v>0.715353553102689</v>
       </c>
       <c r="AN79">
-        <v>0.531074083883901</v>
+        <v>0.4910740838838996</v>
       </c>
       <c r="AO79">
-        <v>0.8444949522781571</v>
+        <v>0.8890901326890344</v>
       </c>
       <c r="AP79">
-        <v>0.246543788682611</v>
+        <v>0.4729789600497171</v>
       </c>
       <c r="AQ79">
-        <v>0.1421894020814378</v>
+        <v>0.2906683195440081</v>
       </c>
       <c r="AR79">
-        <v>-0.059948979259083</v>
+        <v>-0.3268873195639145</v>
       </c>
       <c r="AS79">
-        <v>0.0334975157870645</v>
+        <v>-0.0367645337730806</v>
       </c>
       <c r="AT79">
-        <v>-0.4065540281957183</v>
+        <v>0.06373566500583086</v>
       </c>
       <c r="AU79">
-        <v>0.02342903397147183</v>
+        <v>-0.2803680510127393</v>
       </c>
       <c r="AV79">
-        <v>0.2000000000000028</v>
+        <v>0.07590112796426778</v>
       </c>
       <c r="AW79">
         <v>1.034675296103259</v>
@@ -10374,38 +10356,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>0.575353553102692</v>
-      </c>
       <c r="AN80">
-        <v>0.531074083883901</v>
+        <v>0.4910740838838996</v>
       </c>
       <c r="AO80">
-        <v>0.8444949522781571</v>
+        <v>0.8890901326890344</v>
       </c>
       <c r="AP80">
-        <v>0.246543788682611</v>
+        <v>0.4729789600497171</v>
       </c>
       <c r="AQ80">
-        <v>0.1421894020814378</v>
+        <v>0.2906683195440081</v>
       </c>
       <c r="AR80">
-        <v>-0.059948979259083</v>
+        <v>-0.3268873195639145</v>
       </c>
       <c r="AS80">
-        <v>0.0334975157870645</v>
+        <v>-0.0367645337730806</v>
       </c>
       <c r="AT80">
-        <v>-0.4065540281957183</v>
+        <v>0.06373566500583086</v>
       </c>
       <c r="AU80">
-        <v>0.02342903397147183</v>
+        <v>-0.2803680510127393</v>
       </c>
       <c r="AV80">
-        <v>0.08047366345313234</v>
+        <v>0.07590112796426778</v>
       </c>
       <c r="AW80">
-        <v>0.09999999999999432</v>
+        <v>0.1941901985991819</v>
       </c>
       <c r="AX80">
         <v>0.434366938073353</v>
@@ -10424,38 +10403,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>0.531074083883901</v>
-      </c>
       <c r="AO81">
-        <v>0.8444949522781571</v>
+        <v>0.8890901326890344</v>
       </c>
       <c r="AP81">
-        <v>0.246543788682611</v>
+        <v>0.4729789600497171</v>
       </c>
       <c r="AQ81">
-        <v>0.1421894020814378</v>
+        <v>0.2906683195440081</v>
       </c>
       <c r="AR81">
-        <v>-0.059948979259083</v>
+        <v>-0.3268873195639145</v>
       </c>
       <c r="AS81">
-        <v>0.0334975157870645</v>
+        <v>-0.0367645337730806</v>
       </c>
       <c r="AT81">
-        <v>-0.4065540281957183</v>
+        <v>0.06373566500583086</v>
       </c>
       <c r="AU81">
-        <v>0.02342903397147183</v>
+        <v>-0.2803680510127393</v>
       </c>
       <c r="AV81">
-        <v>0.08047366345313234</v>
+        <v>0.07590112796426778</v>
       </c>
       <c r="AW81">
-        <v>0.1208356734374177</v>
+        <v>0.1941901985991819</v>
       </c>
       <c r="AX81">
-        <v>0.09999999999999432</v>
+        <v>0.196747983423549</v>
       </c>
       <c r="AY81">
         <v>0.41600913674678</v>
@@ -10471,38 +10447,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>0.8444949522781571</v>
-      </c>
       <c r="AP82">
-        <v>0.246543788682611</v>
+        <v>0.4729789600497171</v>
       </c>
       <c r="AQ82">
-        <v>0.1421894020814378</v>
+        <v>0.2906683195440081</v>
       </c>
       <c r="AR82">
-        <v>-0.059948979259083</v>
+        <v>-0.3268873195639145</v>
       </c>
       <c r="AS82">
-        <v>0.0334975157870645</v>
+        <v>-0.0367645337730806</v>
       </c>
       <c r="AT82">
-        <v>-0.4065540281957183</v>
+        <v>0.06373566500583086</v>
       </c>
       <c r="AU82">
-        <v>0.02342903397147183</v>
+        <v>-0.2803680510127393</v>
       </c>
       <c r="AV82">
-        <v>0.08047366345313234</v>
+        <v>0.07590112796426778</v>
       </c>
       <c r="AW82">
-        <v>0.1208356734374177</v>
+        <v>0.1941901985991819</v>
       </c>
       <c r="AX82">
-        <v>0.1708795756445881</v>
+        <v>0.196747983423549</v>
       </c>
       <c r="AY82">
-        <v>0</v>
+        <v>0.372868855334886</v>
       </c>
       <c r="AZ82">
         <v>-0.3423454266220887</v>
@@ -10515,38 +10488,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>0.246543788682611</v>
-      </c>
       <c r="AQ83">
-        <v>0.1421894020814378</v>
+        <v>0.2906683195440081</v>
       </c>
       <c r="AR83">
-        <v>-0.059948979259083</v>
+        <v>-0.3268873195639145</v>
       </c>
       <c r="AS83">
-        <v>0.0334975157870645</v>
+        <v>-0.0367645337730806</v>
       </c>
       <c r="AT83">
-        <v>-0.4065540281957183</v>
+        <v>0.06373566500583086</v>
       </c>
       <c r="AU83">
-        <v>0.02342903397147183</v>
+        <v>-0.2803680510127393</v>
       </c>
       <c r="AV83">
-        <v>0.08047366345313234</v>
+        <v>0.07590112796426778</v>
       </c>
       <c r="AW83">
-        <v>0.1208356734374177</v>
+        <v>0.1941901985991819</v>
       </c>
       <c r="AX83">
-        <v>0.1708795756445881</v>
+        <v>0.196747983423549</v>
       </c>
       <c r="AY83">
-        <v>0.484333645640352</v>
+        <v>0.372868855334886</v>
       </c>
       <c r="AZ83">
-        <v>0.4999999999999858</v>
+        <v>0.4143322860265911</v>
       </c>
       <c r="BA83">
         <v>0.7919400257838731</v>
@@ -10556,253 +10526,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>0.1421894020814378</v>
-      </c>
       <c r="AR84">
-        <v>-0.059948979259083</v>
+        <v>-0.3268873195639145</v>
       </c>
       <c r="AS84">
-        <v>0.0334975157870645</v>
+        <v>-0.0367645337730806</v>
       </c>
       <c r="AT84">
-        <v>-0.4065540281957183</v>
+        <v>0.06373566500583086</v>
       </c>
       <c r="AU84">
-        <v>0.02342903397147183</v>
+        <v>-0.2803680510127393</v>
       </c>
       <c r="AV84">
-        <v>0.08047366345313234</v>
+        <v>0.07590112796426778</v>
       </c>
       <c r="AW84">
-        <v>0.1208356734374177</v>
+        <v>0.1941901985991819</v>
       </c>
       <c r="AX84">
-        <v>0.1708795756445881</v>
+        <v>0.196747983423549</v>
       </c>
       <c r="AY84">
-        <v>0.484333645640352</v>
+        <v>0.372868855334886</v>
       </c>
       <c r="AZ84">
-        <v>0.4449618533261372</v>
+        <v>0.4143322860265911</v>
       </c>
       <c r="BA84">
-        <v>0.4000000000000199</v>
+        <v>0.4832982043665225</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>-0.059948979259083</v>
-      </c>
       <c r="AS85">
-        <v>0.0334975157870645</v>
+        <v>-0.0367645337730806</v>
       </c>
       <c r="AT85">
-        <v>-0.4065540281957183</v>
+        <v>0.06373566500583086</v>
       </c>
       <c r="AU85">
-        <v>0.02342903397147183</v>
+        <v>-0.2803680510127393</v>
       </c>
       <c r="AV85">
-        <v>0.08047366345313234</v>
+        <v>0.07590112796426778</v>
       </c>
       <c r="AW85">
-        <v>0.1208356734374177</v>
+        <v>0.1941901985991819</v>
       </c>
       <c r="AX85">
-        <v>0.1708795756445881</v>
+        <v>0.196747983423549</v>
       </c>
       <c r="AY85">
-        <v>0.484333645640352</v>
+        <v>0.372868855334886</v>
       </c>
       <c r="AZ85">
-        <v>0.4449618533261372</v>
+        <v>0.4143322860265911</v>
       </c>
       <c r="BA85">
-        <v>0.6487333988996411</v>
+        <v>0.4832982043665225</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>0.0334975157870645</v>
-      </c>
       <c r="AT86">
-        <v>-0.4065540281957183</v>
+        <v>0.06373566500583086</v>
       </c>
       <c r="AU86">
-        <v>0.02342903397147183</v>
+        <v>-0.2803680510127393</v>
       </c>
       <c r="AV86">
-        <v>0.08047366345313234</v>
+        <v>0.07590112796426778</v>
       </c>
       <c r="AW86">
-        <v>0.1208356734374177</v>
+        <v>0.1941901985991819</v>
       </c>
       <c r="AX86">
-        <v>0.1708795756445881</v>
+        <v>0.196747983423549</v>
       </c>
       <c r="AY86">
-        <v>0.484333645640352</v>
+        <v>0.372868855334886</v>
       </c>
       <c r="AZ86">
-        <v>0.4449618533261372</v>
+        <v>0.4143322860265911</v>
       </c>
       <c r="BA86">
-        <v>0.6487333988996411</v>
+        <v>0.4832982043665225</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>-0.4065540281957183</v>
-      </c>
       <c r="AU87">
-        <v>0.02342903397147183</v>
+        <v>-0.2803680510127393</v>
       </c>
       <c r="AV87">
-        <v>0.08047366345313234</v>
+        <v>0.07590112796426778</v>
       </c>
       <c r="AW87">
-        <v>0.1208356734374177</v>
+        <v>0.1941901985991819</v>
       </c>
       <c r="AX87">
-        <v>0.1708795756445881</v>
+        <v>0.196747983423549</v>
       </c>
       <c r="AY87">
-        <v>0.484333645640352</v>
+        <v>0.372868855334886</v>
       </c>
       <c r="AZ87">
-        <v>0.4449618533261372</v>
+        <v>0.4143322860265911</v>
       </c>
       <c r="BA87">
-        <v>0.6487333988996411</v>
+        <v>0.4832982043665225</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>0.02342903397147183</v>
-      </c>
       <c r="AV88">
-        <v>0.08047366345313234</v>
+        <v>0.07590112796426778</v>
       </c>
       <c r="AW88">
-        <v>0.1208356734374177</v>
+        <v>0.1941901985991819</v>
       </c>
       <c r="AX88">
-        <v>0.1708795756445881</v>
+        <v>0.196747983423549</v>
       </c>
       <c r="AY88">
-        <v>0.484333645640352</v>
+        <v>0.372868855334886</v>
       </c>
       <c r="AZ88">
-        <v>0.4449618533261372</v>
+        <v>0.4143322860265911</v>
       </c>
       <c r="BA88">
-        <v>0.6487333988996411</v>
+        <v>0.4832982043665225</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>0.08047366345313234</v>
-      </c>
       <c r="AW89">
-        <v>0.1208356734374177</v>
+        <v>0.1941901985991819</v>
       </c>
       <c r="AX89">
-        <v>0.1708795756445881</v>
+        <v>0.196747983423549</v>
       </c>
       <c r="AY89">
-        <v>0.484333645640352</v>
+        <v>0.372868855334886</v>
       </c>
       <c r="AZ89">
-        <v>0.4449618533261372</v>
+        <v>0.4143322860265911</v>
       </c>
       <c r="BA89">
-        <v>0.6487333988996411</v>
+        <v>0.4832982043665225</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>0.1208356734374177</v>
-      </c>
       <c r="AX90">
-        <v>0.1708795756445881</v>
+        <v>0.196747983423549</v>
       </c>
       <c r="AY90">
-        <v>0.484333645640352</v>
+        <v>0.372868855334886</v>
       </c>
       <c r="AZ90">
-        <v>0.4449618533261372</v>
+        <v>0.4143322860265911</v>
       </c>
       <c r="BA90">
-        <v>0.6487333988996411</v>
+        <v>0.4832982043665225</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>0.1708795756445881</v>
-      </c>
       <c r="AY91">
-        <v>0.484333645640352</v>
+        <v>0.372868855334886</v>
       </c>
       <c r="AZ91">
-        <v>0.4449618533261372</v>
+        <v>0.4143322860265911</v>
       </c>
       <c r="BA91">
-        <v>0.6487333988996411</v>
+        <v>0.4832982043665225</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>0.484333645640352</v>
-      </c>
       <c r="AZ92">
-        <v>0.4449618533261372</v>
+        <v>0.4143322860265911</v>
       </c>
       <c r="BA92">
-        <v>0.6487333988996411</v>
+        <v>0.4832982043665225</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>0.4449618533261372</v>
-      </c>
       <c r="BA93">
-        <v>0.6487333988996411</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>0.6487333988996411</v>
+        <v>0.4832982043665225</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PUBCON_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PUBCON_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -693,8 +696,11 @@
       <c r="BA2">
         <v>0.4011221634494007</v>
       </c>
+      <c r="BB2">
+        <v>0.4011221634494007</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -854,8 +860,11 @@
       <c r="BA3">
         <v>0.4238702649943349</v>
       </c>
+      <c r="BB3">
+        <v>0.4238702649943349</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1015,8 +1024,11 @@
       <c r="BA4">
         <v>1.065831052964711</v>
       </c>
+      <c r="BB4">
+        <v>1.065831052964711</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1176,8 +1188,11 @@
       <c r="BA5">
         <v>0.1679892790148898</v>
       </c>
+      <c r="BB5">
+        <v>0.1679892790148898</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1337,8 +1352,11 @@
       <c r="BA6">
         <v>0.7826320556679605</v>
       </c>
+      <c r="BB6">
+        <v>0.7826320556679605</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1498,8 +1516,11 @@
       <c r="BA7">
         <v>1.608891637697312</v>
       </c>
+      <c r="BB7">
+        <v>1.608891637697312</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1659,8 +1680,11 @@
       <c r="BA8">
         <v>0.7314738238097078</v>
       </c>
+      <c r="BB8">
+        <v>0.7314738238097078</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1820,8 +1844,11 @@
       <c r="BA9">
         <v>0.6066829402737994</v>
       </c>
+      <c r="BB9">
+        <v>0.6066829402737994</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1981,8 +2008,11 @@
       <c r="BA10">
         <v>0.3745978975504585</v>
       </c>
+      <c r="BB10">
+        <v>0.3745978975504585</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2142,8 +2172,11 @@
       <c r="BA11">
         <v>1.488552458234295</v>
       </c>
+      <c r="BB11">
+        <v>1.488552458234295</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2300,8 +2333,11 @@
       <c r="BA12">
         <v>-1.412768783584468</v>
       </c>
+      <c r="BB12">
+        <v>-1.412768783584468</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2458,8 +2494,11 @@
       <c r="BA13">
         <v>1.150059426400716</v>
       </c>
+      <c r="BB13">
+        <v>1.150059426400716</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2613,8 +2652,11 @@
       <c r="BA14">
         <v>0.08121742761659334</v>
       </c>
+      <c r="BB14">
+        <v>0.08121742761659334</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2768,8 +2810,11 @@
       <c r="BA15">
         <v>-0.02717560123848273</v>
       </c>
+      <c r="BB15">
+        <v>-0.02717560123848273</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2920,8 +2965,11 @@
       <c r="BA16">
         <v>0.7243763014332956</v>
       </c>
+      <c r="BB16">
+        <v>0.7243763014332956</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -3072,8 +3120,11 @@
       <c r="BA17">
         <v>0.06292774364702325</v>
       </c>
+      <c r="BB17">
+        <v>0.06292774364702325</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3221,8 +3272,11 @@
       <c r="BA18">
         <v>0.6288730841304044</v>
       </c>
+      <c r="BB18">
+        <v>0.6288730841304044</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3370,8 +3424,11 @@
       <c r="BA19">
         <v>-0.04932303278563666</v>
       </c>
+      <c r="BB19">
+        <v>-0.04932303278563666</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3516,8 +3573,11 @@
       <c r="BA20">
         <v>0.7008158264609534</v>
       </c>
+      <c r="BB20">
+        <v>0.7008158264609534</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3662,8 +3722,11 @@
       <c r="BA21">
         <v>-0.05880790937801805</v>
       </c>
+      <c r="BB21">
+        <v>-0.05880790937801805</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3805,8 +3868,11 @@
       <c r="BA22">
         <v>0.4315408898675201</v>
       </c>
+      <c r="BB22">
+        <v>0.4315408898675201</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3948,8 +4014,11 @@
       <c r="BA23">
         <v>0.01220354597239748</v>
       </c>
+      <c r="BB23">
+        <v>0.01220354597239748</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -4088,8 +4157,11 @@
       <c r="BA24">
         <v>-0.0390655612641666</v>
       </c>
+      <c r="BB24">
+        <v>-0.0390655612641666</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4228,8 +4300,11 @@
       <c r="BA25">
         <v>0.5861016707528819</v>
       </c>
+      <c r="BB25">
+        <v>0.5861016707528819</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4365,8 +4440,11 @@
       <c r="BA26">
         <v>-0.09710917920445183</v>
       </c>
+      <c r="BB26">
+        <v>-0.09710917920445183</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4502,8 +4580,11 @@
       <c r="BA27">
         <v>0.5608392729090639</v>
       </c>
+      <c r="BB27">
+        <v>0.5608392729090639</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4636,8 +4717,11 @@
       <c r="BA28">
         <v>0.4327290387686133</v>
       </c>
+      <c r="BB28">
+        <v>0.4327290387686133</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4770,8 +4854,11 @@
       <c r="BA29">
         <v>0.6415186033097626</v>
       </c>
+      <c r="BB29">
+        <v>0.6415186033097626</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4901,8 +4988,11 @@
       <c r="BA30">
         <v>0.3424960270584307</v>
       </c>
+      <c r="BB30">
+        <v>0.3424960270584307</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -5032,8 +5122,11 @@
       <c r="BA31">
         <v>0.450007896627298</v>
       </c>
+      <c r="BB31">
+        <v>0.450007896627298</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5160,8 +5253,11 @@
       <c r="BA32">
         <v>0.5281644231130258</v>
       </c>
+      <c r="BB32">
+        <v>0.5281644231130258</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5288,8 +5384,11 @@
       <c r="BA33">
         <v>0.9569320119344127</v>
       </c>
+      <c r="BB33">
+        <v>0.9569320119344127</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5413,8 +5512,11 @@
       <c r="BA34">
         <v>1.458965617195048</v>
       </c>
+      <c r="BB34">
+        <v>1.458965617195048</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5538,8 +5640,11 @@
       <c r="BA35">
         <v>1.616667503385756</v>
       </c>
+      <c r="BB35">
+        <v>1.616667503385756</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5660,8 +5765,11 @@
       <c r="BA36">
         <v>0.7391298723574948</v>
       </c>
+      <c r="BB36">
+        <v>0.7391298723574948</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5782,8 +5890,11 @@
       <c r="BA37">
         <v>0.05368498059650051</v>
       </c>
+      <c r="BB37">
+        <v>0.05368498059650051</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5901,8 +6012,11 @@
       <c r="BA38">
         <v>0.2682953781150843</v>
       </c>
+      <c r="BB38">
+        <v>0.2682953781150843</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -6020,8 +6134,11 @@
       <c r="BA39">
         <v>0.07985748687143257</v>
       </c>
+      <c r="BB39">
+        <v>0.07985748687143257</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -6136,8 +6253,11 @@
       <c r="BA40">
         <v>0.5497494968945205</v>
       </c>
+      <c r="BB40">
+        <v>0.5497494968945205</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6252,8 +6372,11 @@
       <c r="BA41">
         <v>0.5291048039492949</v>
       </c>
+      <c r="BB41">
+        <v>0.5291048039492949</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6365,8 +6488,11 @@
       <c r="BA42">
         <v>0.4298198366907684</v>
       </c>
+      <c r="BB42">
+        <v>0.4298198366907684</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6478,8 +6604,11 @@
       <c r="BA43">
         <v>-1.256079109168695E-05</v>
       </c>
+      <c r="BB43">
+        <v>-1.256079109168695E-05</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6588,8 +6717,11 @@
       <c r="BA44">
         <v>0.5955762646739942</v>
       </c>
+      <c r="BB44">
+        <v>0.5955762646739942</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6698,8 +6830,11 @@
       <c r="BA45">
         <v>0.1202567733712812</v>
       </c>
+      <c r="BB45">
+        <v>0.1202567733712812</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6805,8 +6940,11 @@
       <c r="BA46">
         <v>0.378819647862997</v>
       </c>
+      <c r="BB46">
+        <v>0.378819647862997</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6912,8 +7050,11 @@
       <c r="BA47">
         <v>1.1</v>
       </c>
+      <c r="BB47">
+        <v>1.1</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -7016,8 +7157,11 @@
       <c r="BA48">
         <v>0.5</v>
       </c>
+      <c r="BB48">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -7120,8 +7264,11 @@
       <c r="BA49">
         <v>1.4</v>
       </c>
+      <c r="BB49">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7221,8 +7368,11 @@
       <c r="BA50">
         <v>0.1</v>
       </c>
+      <c r="BB50">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7322,8 +7472,11 @@
       <c r="BA51">
         <v>1.14595180410879</v>
       </c>
+      <c r="BB51">
+        <v>1.14595180410879</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7420,8 +7573,11 @@
       <c r="BA52">
         <v>1.264351713671076</v>
       </c>
+      <c r="BB52">
+        <v>1.264351713671076</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7515,8 +7671,11 @@
       <c r="BA53">
         <v>0.9847891746257034</v>
       </c>
+      <c r="BB53">
+        <v>0.9847891746257034</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7607,8 +7766,11 @@
       <c r="BA54">
         <v>0.1306165969516826</v>
       </c>
+      <c r="BB54">
+        <v>0.1306165969516826</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7696,8 +7858,11 @@
       <c r="BA55">
         <v>-0.702620495601451</v>
       </c>
+      <c r="BB55">
+        <v>-0.702620495601451</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7782,8 +7947,11 @@
       <c r="BA56">
         <v>4.902896932015494</v>
       </c>
+      <c r="BB56">
+        <v>4.902896932015494</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7865,8 +8033,11 @@
       <c r="BA57">
         <v>-3.137970849842105</v>
       </c>
+      <c r="BB57">
+        <v>-3.137970849842105</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7945,8 +8116,11 @@
       <c r="BA58">
         <v>0.1542746451113572</v>
       </c>
+      <c r="BB58">
+        <v>0.1542746451113572</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -8022,8 +8196,11 @@
       <c r="BA59">
         <v>0.833545251617636</v>
       </c>
+      <c r="BB59">
+        <v>0.833545251617636</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -8096,8 +8273,11 @@
       <c r="BA60">
         <v>0.3586840777896043</v>
       </c>
+      <c r="BB60">
+        <v>0.3586840777896043</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8167,8 +8347,11 @@
       <c r="BA61">
         <v>-1.11464790305466</v>
       </c>
+      <c r="BB61">
+        <v>-1.11464790305466</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8235,8 +8418,11 @@
       <c r="BA62">
         <v>0.1937043270045251</v>
       </c>
+      <c r="BB62">
+        <v>0.1937043270045251</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8300,8 +8486,11 @@
       <c r="BA63">
         <v>-1.254351945331166</v>
       </c>
+      <c r="BB63">
+        <v>-1.254351945331166</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8362,8 +8551,11 @@
       <c r="BA64">
         <v>0.05976999529040938</v>
       </c>
+      <c r="BB64">
+        <v>0.05976999529040938</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8421,8 +8613,11 @@
       <c r="BA65">
         <v>1.365536114841987</v>
       </c>
+      <c r="BB65">
+        <v>1.365536114841987</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8477,8 +8672,11 @@
       <c r="BA66">
         <v>0.5893749959732304</v>
       </c>
+      <c r="BB66">
+        <v>0.5893749959732304</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8530,8 +8728,11 @@
       <c r="BA67">
         <v>0.450398338429352</v>
       </c>
+      <c r="BB67">
+        <v>0.450398338429352</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8580,8 +8781,11 @@
       <c r="BA68">
         <v>1.478730722800918</v>
       </c>
+      <c r="BB68">
+        <v>1.478730722800918</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8627,8 +8831,11 @@
       <c r="BA69">
         <v>1.16573263774626</v>
       </c>
+      <c r="BB69">
+        <v>1.16573263774626</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8671,8 +8878,11 @@
       <c r="BA70">
         <v>0.4367731001324842</v>
       </c>
+      <c r="BB70">
+        <v>0.4367731001324842</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8712,8 +8922,11 @@
       <c r="BA71">
         <v>-0.2509219420021225</v>
       </c>
+      <c r="BB71">
+        <v>0.1765865160815849</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8750,8 +8963,11 @@
       <c r="BA72">
         <v>0.7919400257838731</v>
       </c>
+      <c r="BB72">
+        <v>0.2412052862208469</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8785,8 +9001,11 @@
       <c r="BA73">
         <v>0.4832982043665225</v>
       </c>
+      <c r="BB73">
+        <v>0.768168485846715</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8817,8 +9036,11 @@
       <c r="BA74">
         <v>0.4832982043665225</v>
       </c>
+      <c r="BB74">
+        <v>0.6732276193363788</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8846,8 +9068,11 @@
       <c r="BA75">
         <v>0.4832982043665225</v>
       </c>
+      <c r="BB75">
+        <v>0.6732276193363788</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8872,8 +9097,11 @@
       <c r="BA76">
         <v>0.4832982043665225</v>
       </c>
+      <c r="BB76">
+        <v>0.6732276193363788</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8895,8 +9123,11 @@
       <c r="BA77">
         <v>0.4832982043665225</v>
       </c>
+      <c r="BB77">
+        <v>0.6732276193363788</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8915,8 +9146,11 @@
       <c r="BA78">
         <v>0.4832982043665225</v>
       </c>
+      <c r="BB78">
+        <v>0.6732276193363788</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8932,8 +9166,11 @@
       <c r="BA79">
         <v>0.4832982043665225</v>
       </c>
+      <c r="BB79">
+        <v>0.6732276193363788</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8946,8 +9183,11 @@
       <c r="BA80">
         <v>0.4832982043665225</v>
       </c>
+      <c r="BB80">
+        <v>0.6732276193363788</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8957,13 +9197,27 @@
       <c r="BA81">
         <v>0.4832982043665225</v>
       </c>
+      <c r="BB81">
+        <v>0.6732276193363788</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>0.4832982043665225</v>
+      </c>
+      <c r="BB82">
+        <v>0.6732276193363788</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>0.6732276193363788</v>
       </c>
     </row>
   </sheetData>
